--- a/premise/data/additional_inventories/lci-rhenium.xlsx
+++ b/premise/data/additional_inventories/lci-rhenium.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\Desktop\PRISMA\Workspace\7. Mining impacts\Additional inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32707A0A-D73A-4F1D-87A5-C0E2265D6EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1425" windowWidth="30240" windowHeight="16320"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rhenium" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rhenium!$A$1:$H$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -472,7 +474,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,7 +546,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -560,11 +565,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Per cent 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Per cent 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -842,17 +853,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H266" sqref="H266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -864,7 +875,7 @@
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
@@ -875,7 +886,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -883,7 +894,7 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>114</v>
       </c>
     </row>
@@ -891,7 +902,7 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>69</v>
       </c>
     </row>
@@ -899,7 +910,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
     </row>
@@ -907,7 +918,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>67</v>
       </c>
     </row>
@@ -915,7 +926,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -923,13 +934,13 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
@@ -955,8 +966,9 @@
       <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="12">
-        <v>4.1581000000000002E-7</v>
+      <c r="B11" s="17">
+        <f>0.00000041581/$H$11</f>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -970,15 +982,17 @@
       <c r="G11" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <v>4.1581000000000002E-7</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="6">
-        <f>H12*0.07/0.9509</f>
-        <v>3.1511967422016977E-11</v>
+      <c r="B12" s="14">
+        <f>H12*0.07/0.9509/$H$11</f>
+        <v>7.5784534816423303E-5</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1001,9 +1015,9 @@
       <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="6">
-        <f t="shared" ref="B13:B76" si="0">H13*0.07/0.9509</f>
-        <v>8.5112014746289104E-9</v>
+      <c r="B13" s="14">
+        <f t="shared" ref="B13:B76" si="0">H13*0.07/0.9509/$H$11</f>
+        <v>2.0468967736776197E-2</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1026,9 +1040,9 @@
       <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="14">
         <f t="shared" si="0"/>
-        <v>3.149454652904937E-3</v>
+        <v>7574.2638534545513</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1052,9 +1066,9 @@
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="14">
         <f t="shared" si="0"/>
-        <v>6.550262069217069E-9</v>
+        <v>1.5753017169421294E-2</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1076,9 +1090,9 @@
       <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="14">
         <f t="shared" si="0"/>
-        <v>2.4222792537936773E-3</v>
+        <v>5825.4473288128647</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1100,9 +1114,9 @@
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="14">
         <f t="shared" si="0"/>
-        <v>8.4733971140052281E-4</v>
+        <v>2037.8050345122117</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1124,9 +1138,9 @@
       <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="14">
         <f t="shared" si="0"/>
-        <v>2.8378989987378276E-7</v>
+        <v>0.68249897759501399</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -1148,9 +1162,9 @@
       <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="14">
         <f t="shared" si="0"/>
-        <v>2.9121571942184168E-8</v>
+        <v>7.0035766196542087E-2</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1173,9 +1187,9 @@
       <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="14">
         <f t="shared" si="0"/>
-        <v>1.4470124389270461E-8</v>
+        <v>3.4799847019721657E-2</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1198,9 +1212,9 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="14">
         <f t="shared" si="0"/>
-        <v>2.0594407393488142E-4</v>
+        <v>495.28408151531085</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1223,9 +1237,9 @@
       <c r="A22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="14">
         <f t="shared" si="0"/>
-        <v>1.4179427696174688E-8</v>
+        <v>3.4100737587298736E-2</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1249,9 +1263,9 @@
       <c r="A23" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="14">
         <f t="shared" si="0"/>
-        <v>4.8623748139846774E-2</v>
+        <v>116937.41886882656</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1275,9 +1289,9 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="14">
         <f t="shared" si="0"/>
-        <v>2.7227728802062482E-2</v>
+        <v>65481.178427797509</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1300,9 +1314,9 @@
       <c r="A25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="14">
         <f t="shared" si="0"/>
-        <v>1.1968165447569261E-7</v>
+        <v>0.28782774458452803</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1325,9 +1339,9 @@
       <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="14">
         <f t="shared" si="0"/>
-        <v>4.0871714992302133E-3</v>
+        <v>9829.4208874972064</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1350,9 +1364,9 @@
       <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="14">
         <f t="shared" si="0"/>
-        <v>3.5391232229163953E-11</v>
+        <v>8.5113951634554127E-5</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1375,9 +1389,9 @@
       <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="14">
         <f t="shared" si="0"/>
-        <v>1.544014067754439E-11</v>
+        <v>3.7132682421164448E-5</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1400,9 +1414,9 @@
       <c r="A29" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="14">
         <f t="shared" si="0"/>
-        <v>-6.4409802896667658</v>
+        <v>-15490200.547525952</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1425,9 +1439,9 @@
       <c r="A30" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="14">
         <f t="shared" si="0"/>
-        <v>1.3874646019341583E-10</v>
+        <v>3.3367754549774132E-4</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1450,9 +1464,9 @@
       <c r="A31" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="14">
         <f t="shared" si="0"/>
-        <v>1.1043513474833243E-4</v>
+        <v>265.59037721154476</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1475,9 +1489,9 @@
       <c r="A32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="14">
         <f t="shared" si="0"/>
-        <v>2.7132808563392146E-3</v>
+        <v>6525.2900515601223</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1500,9 +1514,9 @@
       <c r="A33" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="14">
         <f t="shared" si="0"/>
-        <v>-3.6482849646959834</v>
+        <v>-8773923.1011663582</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1525,9 +1539,9 @@
       <c r="A34" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="14">
         <f t="shared" si="0"/>
-        <v>2.115294113429197E-8</v>
+        <v>5.087165083642041E-2</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1550,9 +1564,9 @@
       <c r="A35" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="14">
         <f t="shared" si="0"/>
-        <v>5.7578053415189837E-8</v>
+        <v>0.13847202668331651</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1572,9 +1586,9 @@
       <c r="A36" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="14">
         <f t="shared" si="0"/>
-        <v>3.4256472948005415E-10</v>
+        <v>8.2384918467582344E-4</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1594,9 +1608,9 @@
       <c r="A37" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="14">
         <f t="shared" si="0"/>
-        <v>2.5692354711004083E-9</v>
+        <v>6.1788688850686812E-3</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1616,9 +1630,9 @@
       <c r="A38" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="14">
         <f t="shared" si="0"/>
-        <v>1.9667740723090234E-9</v>
+        <v>4.7299826178038608E-3</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1638,9 +1652,9 @@
       <c r="A39" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="14">
         <f t="shared" si="0"/>
-        <v>7.1026413004047242E-13</v>
+        <v>1.7081458599852634E-6</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1660,9 +1674,9 @@
       <c r="A40" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="14">
         <f t="shared" si="0"/>
-        <v>4.4558641648405037E-9</v>
+        <v>1.0716106310190961E-2</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1682,9 +1696,9 @@
       <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="14">
         <f t="shared" si="0"/>
-        <v>6.9451872466825583E-6</v>
+        <v>16.702790328954471</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1704,9 +1718,9 @@
       <c r="A42" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="14">
         <f t="shared" si="0"/>
-        <v>1.7128236474002673E-8</v>
+        <v>4.1192459233791091E-2</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1726,9 +1740,9 @@
       <c r="A43" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="14">
         <f t="shared" si="0"/>
-        <v>1.8841060121402999E-10</v>
+        <v>4.531170515717034E-4</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1748,9 +1762,9 @@
       <c r="A44" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="14">
         <f t="shared" si="0"/>
-        <v>2.1047452646147537E-10</v>
+        <v>5.0617956870078963E-4</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1770,9 +1784,9 @@
       <c r="A45" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="14">
         <f t="shared" si="0"/>
-        <v>4.5724160978700317E-4</v>
+        <v>1099.6407248190355</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1792,9 +1806,9 @@
       <c r="A46" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="14">
         <f t="shared" si="0"/>
-        <v>2.1255172688652651E-3</v>
+        <v>5111.7512057556696</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1814,9 +1828,9 @@
       <c r="A47" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="14">
         <f t="shared" si="0"/>
-        <v>3.7235296682614622E-4</v>
+        <v>895.48824421285246</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1836,9 +1850,9 @@
       <c r="A48" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="14">
         <f t="shared" si="0"/>
-        <v>1.7128236474002675E-7</v>
+        <v>0.41192459233791096</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1858,9 +1872,9 @@
       <c r="A49" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="14">
         <f t="shared" si="0"/>
-        <v>3.6436987021264404E-10</v>
+        <v>8.7628933939213585E-4</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1880,9 +1894,9 @@
       <c r="A50" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="14">
         <f t="shared" si="0"/>
-        <v>3.4256472948005499E-8</v>
+        <v>8.2384918467582544E-2</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1902,9 +1916,9 @@
       <c r="A51" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="14">
         <f t="shared" si="0"/>
-        <v>5.2062268592804513E-10</v>
+        <v>1.2520686994734256E-3</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1924,9 +1938,9 @@
       <c r="A52" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="14">
         <f t="shared" si="0"/>
-        <v>6.9451049661336942E-6</v>
+        <v>16.702592448795588</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1946,9 +1960,9 @@
       <c r="A53" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="14">
         <f t="shared" si="0"/>
-        <v>2.0081760163705165E-2</v>
+        <v>48295.519981975332</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1968,9 +1982,9 @@
       <c r="A54" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="14">
         <f t="shared" si="0"/>
-        <v>8.5641182370013377E-8</v>
+        <v>0.20596229616895548</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -1990,9 +2004,9 @@
       <c r="A55" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="14">
         <f t="shared" si="0"/>
-        <v>5.276593049339407E-9</v>
+        <v>1.2689913781148619E-2</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2012,9 +2026,9 @@
       <c r="A56" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="14">
         <f t="shared" si="0"/>
-        <v>2.1560664181021941E-17</v>
+        <v>5.185220216209793E-11</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -2034,9 +2048,9 @@
       <c r="A57" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="14">
         <f t="shared" si="0"/>
-        <v>2.2766731645591203E-6</v>
+        <v>5.4752727557276648</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -2056,9 +2070,9 @@
       <c r="A58" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="14">
         <f t="shared" si="0"/>
-        <v>3.4442563732866091E-6</v>
+        <v>8.2832456489420867</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -2078,9 +2092,9 @@
       <c r="A59" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="14">
         <f t="shared" si="0"/>
-        <v>2.716987083707795E-6</v>
+        <v>6.5342033229306526</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -2100,9 +2114,9 @@
       <c r="A60" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="14">
         <f t="shared" si="0"/>
-        <v>1.6271824650302548E-6</v>
+        <v>3.9132836272101557</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -2122,9 +2136,9 @@
       <c r="A61" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="14">
         <f t="shared" si="0"/>
-        <v>7.0984914027923818</v>
+        <v>17071478.326140258</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -2144,9 +2158,9 @@
       <c r="A62" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="14">
         <f t="shared" si="0"/>
-        <v>1.9060488262470242E-7</v>
+        <v>0.45839417672663574</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -2166,9 +2180,9 @@
       <c r="A63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="14">
         <f t="shared" si="0"/>
-        <v>1.9370802859999645E-7</v>
+        <v>0.46585707077751004</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -2188,9 +2202,9 @@
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="14">
         <f t="shared" si="0"/>
-        <v>2.3979531063603829E-8</v>
+        <v>5.7669442927307732E-2</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -2210,9 +2224,9 @@
       <c r="A65" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="14">
         <f t="shared" si="0"/>
-        <v>1.8650386895850984E-9</v>
+        <v>4.4853146619492036E-3</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -2232,9 +2246,9 @@
       <c r="A66" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="14">
         <f t="shared" si="0"/>
-        <v>1.6271824650302548E-6</v>
+        <v>3.9132836272101557</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -2254,9 +2268,9 @@
       <c r="A67" t="s">
         <v>129</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="14">
         <f t="shared" si="0"/>
-        <v>1.6437286367441806E-8</v>
+        <v>3.9530762529621233E-2</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>7</v>
@@ -2276,9 +2290,9 @@
       <c r="A68" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="14">
         <f t="shared" si="0"/>
-        <v>8.564118237001337E-11</v>
+        <v>2.0596229616895545E-4</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>7</v>
@@ -2298,9 +2312,9 @@
       <c r="A69" t="s">
         <v>130</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="14">
         <f t="shared" si="0"/>
-        <v>2.5089024375023E-11</v>
+        <v>6.0337712837649404E-5</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>7</v>
@@ -2320,9 +2334,9 @@
       <c r="A70" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="14">
         <f t="shared" si="0"/>
-        <v>3.1182633185486143E-4</v>
+        <v>749.9250423387158</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>7</v>
@@ -2342,9 +2356,9 @@
       <c r="A71" t="s">
         <v>131</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="14">
         <f t="shared" si="0"/>
-        <v>5.4577620185883896E-16</v>
+        <v>1.3125615109276808E-9</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>7</v>
@@ -2364,9 +2378,9 @@
       <c r="A72" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="14">
         <f t="shared" si="0"/>
-        <v>1.3702589179202168E-7</v>
+        <v>0.3295396738703294</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>7</v>
@@ -2386,9 +2400,9 @@
       <c r="A73" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="14">
         <f t="shared" si="0"/>
-        <v>1.6211925048404871E-8</v>
+        <v>3.898878105001051E-2</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>7</v>
@@ -2408,9 +2422,9 @@
       <c r="A74" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="14">
         <f t="shared" si="0"/>
-        <v>2.0425124987343096E-9</v>
+        <v>4.9121293348748452E-3</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>7</v>
@@ -2430,9 +2444,9 @@
       <c r="A75" t="s">
         <v>39</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="14">
         <f t="shared" si="0"/>
-        <v>1.5158264809161323E-5</v>
+        <v>36.454786583202235</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>7</v>
@@ -2452,9 +2466,9 @@
       <c r="A76" t="s">
         <v>60</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="14">
         <f t="shared" si="0"/>
-        <v>1.9599168149586396E-4</v>
+        <v>471.34912940012015</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>64</v>
@@ -2474,9 +2488,9 @@
       <c r="A77" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="6">
-        <f t="shared" ref="B77:B94" si="1">H77*0.07/0.9509</f>
-        <v>8.4193061708624998E-5</v>
+      <c r="B77" s="14">
+        <f t="shared" ref="B77:B94" si="1">H77*0.07/0.9509/$H$11</f>
+        <v>202.47964625339696</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>7</v>
@@ -2496,9 +2510,9 @@
       <c r="A78" t="s">
         <v>134</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="14">
         <f t="shared" si="1"/>
-        <v>8.7095639418752571E-4</v>
+        <v>2094.6018474484154</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>7</v>
@@ -2517,9 +2531,9 @@
       <c r="A79" t="s">
         <v>135</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="14">
         <f t="shared" si="1"/>
-        <v>7.5767419150412772E-4</v>
+        <v>1822.1644296773231</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>7</v>
@@ -2538,9 +2552,9 @@
       <c r="A80" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="14">
         <f t="shared" si="1"/>
-        <v>5.6101878732224454E-5</v>
+        <v>134.92190840101117</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>7</v>
@@ -2559,9 +2573,9 @@
       <c r="A81" t="s">
         <v>137</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="14">
         <f t="shared" si="1"/>
-        <v>8.564118237001337E-11</v>
+        <v>2.0596229616895545E-4</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>7</v>
@@ -2580,9 +2594,9 @@
       <c r="A82" t="s">
         <v>138</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="14">
         <f t="shared" si="1"/>
-        <v>6.7855338214394308E-6</v>
+        <v>16.318832691468291</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>7</v>
@@ -2601,9 +2615,9 @@
       <c r="A83" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="14">
         <f t="shared" si="1"/>
-        <v>1.5708477571868369E-3</v>
+        <v>3777.8017777033665</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>7</v>
@@ -2622,9 +2636,9 @@
       <c r="A84" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="14">
         <f t="shared" si="1"/>
-        <v>4.8329695505373162E-6</v>
+        <v>11.623023858342311</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>7</v>
@@ -2643,9 +2657,9 @@
       <c r="A85" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="14">
         <f t="shared" si="1"/>
-        <v>2.7168971973355424E-6</v>
+        <v>6.5339871511881444</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>7</v>
@@ -2664,9 +2678,9 @@
       <c r="A86" t="s">
         <v>62</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="14">
         <f t="shared" si="1"/>
-        <v>6.5161769194575589E-6</v>
+        <v>15.671044273724918</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>65</v>
@@ -2685,9 +2699,9 @@
       <c r="A87" t="s">
         <v>63</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="14">
         <f t="shared" si="1"/>
-        <v>6.5161769194575589E-6</v>
+        <v>15.671044273724918</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>65</v>
@@ -2706,9 +2720,9 @@
       <c r="A88" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="14">
         <f t="shared" si="1"/>
-        <v>3.3339790331004697E-4</v>
+        <v>801.80347589054361</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>22</v>
@@ -2727,9 +2741,9 @@
       <c r="A89" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="14">
         <f t="shared" si="1"/>
-        <v>2.1074172071667593E-8</v>
+        <v>5.0682215607290811E-2</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>22</v>
@@ -2748,9 +2762,9 @@
       <c r="A90" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="14">
         <f t="shared" si="1"/>
-        <v>3.333941843385049E-4</v>
+        <v>801.79453197014232</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
@@ -2769,9 +2783,9 @@
       <c r="A91" t="s">
         <v>33</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="14">
         <f t="shared" si="1"/>
-        <v>3.7006486918421113E-3</v>
+        <v>8899.8549622233986</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
@@ -2790,9 +2804,9 @@
       <c r="A92" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="14">
         <f t="shared" si="1"/>
-        <v>3.7348253978979514E-8</v>
+        <v>8.9820480457371191E-2</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
@@ -2811,9 +2825,9 @@
       <c r="A93" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="14">
         <f t="shared" si="1"/>
-        <v>3.254364930060517E-7</v>
+        <v>0.78265672544203291</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>7</v>
@@ -2832,9 +2846,9 @@
       <c r="A94" t="s">
         <v>140</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="14">
         <f t="shared" si="1"/>
-        <v>5.0560843442988125E-8</v>
+        <v>0.12159602569199424</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>7</v>
@@ -2853,8 +2867,9 @@
       <c r="A95" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="12">
-        <v>4.1581000000000002E-7</v>
+      <c r="B95" s="17">
+        <f>B11</f>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -2866,15 +2881,12 @@
         <v>20</v>
       </c>
       <c r="H95" s="7"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2882,7 +2894,7 @@
       <c r="A99" t="s">
         <v>1</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="16" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2890,7 +2902,7 @@
       <c r="A100" t="s">
         <v>2</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2898,7 +2910,7 @@
       <c r="A101" t="s">
         <v>4</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2906,7 +2918,7 @@
       <c r="A102" t="s">
         <v>5</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="16" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2914,7 +2926,7 @@
       <c r="A103" t="s">
         <v>6</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2922,13 +2934,13 @@
       <c r="A104" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B104"/>
+      <c r="B104" s="16"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C105" t="s">
@@ -2954,9 +2966,9 @@
       <c r="A106" t="s">
         <v>82</v>
       </c>
-      <c r="B106" s="6">
-        <f>H106*0.01/76.2</f>
-        <v>2.8582553364908397E-14</v>
+      <c r="B106" s="14">
+        <f t="shared" ref="B106:B127" si="2">H106*0.01/76.2/$H$129</f>
+        <v>3.1202638958231059E-7</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -2978,9 +2990,9 @@
       <c r="A107" t="s">
         <v>70</v>
       </c>
-      <c r="B107" s="6">
-        <f t="shared" ref="B107:B170" si="2">H107*0.01/76.2</f>
-        <v>7.7199835570436614E-12</v>
+      <c r="B107" s="14">
+        <f t="shared" si="2"/>
+        <v>8.4276536325706154E-5</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -3002,9 +3014,9 @@
       <c r="A108" t="s">
         <v>52</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="14">
         <f t="shared" si="2"/>
-        <v>4.1914778786236484E-6</v>
+        <v>45.756993533221056</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -3026,9 +3038,9 @@
       <c r="A109" t="s">
         <v>73</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="14">
         <f t="shared" si="2"/>
-        <v>8.7174706697196712E-12</v>
+        <v>9.516577699114299E-5</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -3050,9 +3062,9 @@
       <c r="A110" t="s">
         <v>51</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="14">
         <f t="shared" si="2"/>
-        <v>3.2237104600825065E-6</v>
+        <v>35.192193051346642</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -3074,9 +3086,9 @@
       <c r="A111" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="14">
         <f t="shared" si="2"/>
-        <v>7.6856935636427419E-7</v>
+        <v>8.3902203679385412</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -3098,9 +3110,9 @@
       <c r="A112" t="s">
         <v>48</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="14">
         <f t="shared" si="2"/>
-        <v>2.5740823633553939E-10</v>
+        <v>2.8100415525205437E-3</v>
       </c>
       <c r="C112" t="s">
         <v>59</v>
@@ -3122,9 +3134,9 @@
       <c r="A113" t="s">
         <v>83</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="14">
         <f t="shared" si="2"/>
-        <v>3.8756685851573222E-11</v>
+        <v>4.2309406735121363E-4</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -3146,9 +3158,9 @@
       <c r="A114" t="s">
         <v>71</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="14">
         <f t="shared" si="2"/>
-        <v>1.9257685206744357E-11</v>
+        <v>2.102298528077067E-4</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -3170,9 +3182,9 @@
       <c r="A115" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="14">
         <f t="shared" si="2"/>
-        <v>2.7408238100380316E-7</v>
+        <v>2.9920677379976981</v>
       </c>
       <c r="C115" t="s">
         <v>17</v>
@@ -3194,9 +3206,9 @@
       <c r="A116" t="s">
         <v>72</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="14">
         <f t="shared" si="2"/>
-        <v>1.2861280394908242E-11</v>
+        <v>1.4040239287914415E-4</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -3218,9 +3230,9 @@
       <c r="A117" t="s">
         <v>104</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="14">
         <f t="shared" si="2"/>
-        <v>4.4103589515582022E-5</v>
+        <v>481.46446639937579</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
@@ -3242,9 +3254,9 @@
       <c r="A118" t="s">
         <v>105</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="14">
         <f t="shared" si="2"/>
-        <v>3.6236248981627562E-5</v>
+        <v>395.5792821373488</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
@@ -3266,9 +3278,9 @@
       <c r="A119" t="s">
         <v>75</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="14">
         <f t="shared" si="2"/>
-        <v>1.5927932372331495E-10</v>
+        <v>1.7388002982796954E-3</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -3290,9 +3302,9 @@
       <c r="A120" t="s">
         <v>49</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="14">
         <f t="shared" si="2"/>
-        <v>5.43944613057479E-6</v>
+        <v>59.380654897490146</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
@@ -3314,9 +3326,9 @@
       <c r="A121" t="s">
         <v>74</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="14">
         <f t="shared" si="2"/>
-        <v>3.2101194136585955E-14</v>
+        <v>3.5043824041337021E-7</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -3338,9 +3350,9 @@
       <c r="A122" t="s">
         <v>50</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="14">
         <f t="shared" si="2"/>
-        <v>1.4004795034449737E-14</v>
+        <v>1.5288576830944114E-7</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -3362,9 +3374,9 @@
       <c r="A123" t="s">
         <v>79</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="14">
         <f t="shared" si="2"/>
-        <v>-5.842214178067952E-3</v>
+        <v>-63777.54198080796</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -3386,9 +3398,9 @@
       <c r="A124" t="s">
         <v>78</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="14">
         <f t="shared" si="2"/>
-        <v>1.8465187873133465E-13</v>
+        <v>2.0157841853578447E-6</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -3410,9 +3422,9 @@
       <c r="A125" t="s">
         <v>80</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="14">
         <f t="shared" si="2"/>
-        <v>1.469735161589029E-7</v>
+        <v>1.6044618206707519</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -3434,9 +3446,9 @@
       <c r="A126" t="s">
         <v>84</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="14">
         <f t="shared" si="2"/>
-        <v>2.46104896694311E-6</v>
+        <v>26.866466894567971</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -3458,9 +3470,9 @@
       <c r="A127" t="s">
         <v>81</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="14">
         <f t="shared" si="2"/>
-        <v>-3.2728783290624278E-3</v>
+        <v>-35728.942600814684</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -3482,9 +3494,9 @@
       <c r="A128" t="s">
         <v>76</v>
       </c>
-      <c r="B128" s="6">
-        <f t="shared" si="2"/>
-        <v>1.9186522399525986E-11</v>
+      <c r="B128" s="14">
+        <f>H128*0.01/76.2/$H$129</f>
+        <v>2.0945299170907049E-4</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -3506,8 +3518,9 @@
       <c r="A129" t="s">
         <v>68</v>
       </c>
-      <c r="B129" s="12">
-        <v>9.1603000000000003E-8</v>
+      <c r="B129" s="17">
+        <f>0.000000091603/$H$129</f>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
@@ -3521,15 +3534,17 @@
       <c r="G129" t="s">
         <v>67</v>
       </c>
-      <c r="H129" s="7"/>
+      <c r="H129" s="7">
+        <v>9.1603000000000003E-8</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>115</v>
       </c>
-      <c r="B130" s="6">
-        <f t="shared" si="2"/>
-        <v>5.2207543390071923E-11</v>
+      <c r="B130" s="14">
+        <f>H130*0.01/76.2/$H$129</f>
+        <v>5.6993268113568246E-4</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -3548,9 +3563,9 @@
       <c r="A131" t="s">
         <v>116</v>
       </c>
-      <c r="B131" s="6">
-        <f t="shared" si="2"/>
-        <v>3.1071924295205902E-13</v>
+      <c r="B131" s="14">
+        <f t="shared" ref="B131:B190" si="3">H131*0.01/76.2/$H$129</f>
+        <v>3.3920203809051997E-6</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -3569,9 +3584,9 @@
       <c r="A132" t="s">
         <v>117</v>
       </c>
-      <c r="B132" s="6">
-        <f t="shared" si="2"/>
-        <v>2.3303943221404332E-12</v>
+      <c r="B132" s="14">
+        <f t="shared" si="3"/>
+        <v>2.5440152856788896E-5</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -3590,9 +3605,9 @@
       <c r="A133" t="s">
         <v>117</v>
       </c>
-      <c r="B133" s="6">
-        <f t="shared" si="2"/>
-        <v>1.7839389120215222E-12</v>
+      <c r="B133" s="14">
+        <f t="shared" si="3"/>
+        <v>1.9474677816463676E-5</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -3611,9 +3626,9 @@
       <c r="A134" t="s">
         <v>118</v>
       </c>
-      <c r="B134" s="6">
-        <f t="shared" si="2"/>
-        <v>6.442365888547428E-16</v>
+      <c r="B134" s="14">
+        <f t="shared" si="3"/>
+        <v>7.0329201975343907E-9</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -3632,9 +3647,9 @@
       <c r="A135" t="s">
         <v>119</v>
       </c>
-      <c r="B135" s="6">
-        <f t="shared" si="2"/>
-        <v>4.0416383265664179E-12</v>
+      <c r="B135" s="14">
+        <f t="shared" si="3"/>
+        <v>4.4121244135742472E-5</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -3653,9 +3668,9 @@
       <c r="A136" t="s">
         <v>37</v>
       </c>
-      <c r="B136" s="6">
-        <f t="shared" si="2"/>
-        <v>6.2995490712803937E-9</v>
+      <c r="B136" s="14">
+        <f t="shared" si="3"/>
+        <v>6.8770117477379489E-2</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -3674,9 +3689,9 @@
       <c r="A137" t="s">
         <v>34</v>
       </c>
-      <c r="B137" s="6">
-        <f t="shared" si="2"/>
-        <v>1.5535962147602885E-11</v>
+      <c r="B137" s="14">
+        <f t="shared" si="3"/>
+        <v>1.6960101904525926E-4</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -3695,9 +3710,9 @@
       <c r="A138" t="s">
         <v>120</v>
       </c>
-      <c r="B138" s="6">
-        <f t="shared" si="2"/>
-        <v>1.7089558362363125E-13</v>
+      <c r="B138" s="14">
+        <f t="shared" si="3"/>
+        <v>1.8656112094978467E-6</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -3716,9 +3731,9 @@
       <c r="A139" t="s">
         <v>120</v>
       </c>
-      <c r="B139" s="6">
-        <f t="shared" si="2"/>
-        <v>1.9090840327334385E-13</v>
+      <c r="B139" s="14">
+        <f t="shared" si="3"/>
+        <v>2.0840846181166974E-6</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -3737,9 +3752,9 @@
       <c r="A140" t="s">
         <v>121</v>
       </c>
-      <c r="B140" s="6">
-        <f t="shared" si="2"/>
-        <v>4.1473553641916932E-7</v>
+      <c r="B140" s="14">
+        <f t="shared" si="3"/>
+        <v>4.5275322469697423</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -3758,9 +3773,9 @@
       <c r="A141" t="s">
         <v>19</v>
       </c>
-      <c r="B141" s="6">
-        <f t="shared" si="2"/>
-        <v>1.9279250308861546E-6</v>
+      <c r="B141" s="14">
+        <f t="shared" si="3"/>
+        <v>21.046527197648054</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -3779,9 +3794,9 @@
       <c r="A142" t="s">
         <v>61</v>
       </c>
-      <c r="B142" s="6">
-        <f t="shared" si="2"/>
-        <v>3.377383075565853E-7</v>
+      <c r="B142" s="14">
+        <f t="shared" si="3"/>
+        <v>3.6869786748969497</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -3800,9 +3815,9 @@
       <c r="A143" t="s">
         <v>122</v>
       </c>
-      <c r="B143" s="6">
-        <f t="shared" si="2"/>
-        <v>1.5535962147602887E-10</v>
+      <c r="B143" s="14">
+        <f t="shared" si="3"/>
+        <v>1.6960101904525929E-3</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -3821,9 +3836,9 @@
       <c r="A144" t="s">
         <v>122</v>
       </c>
-      <c r="B144" s="6">
-        <f t="shared" si="2"/>
-        <v>3.3049733520100919E-13</v>
+      <c r="B144" s="14">
+        <f t="shared" si="3"/>
+        <v>3.6079313472376361E-6</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -3842,9 +3857,9 @@
       <c r="A145" t="s">
         <v>123</v>
       </c>
-      <c r="B145" s="6">
-        <f t="shared" si="2"/>
-        <v>3.1071924295205899E-11</v>
+      <c r="B145" s="14">
+        <f t="shared" si="3"/>
+        <v>3.3920203809051992E-4</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -3863,9 +3878,9 @@
       <c r="A146" t="s">
         <v>123</v>
       </c>
-      <c r="B146" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7222458389326908E-13</v>
+      <c r="B146" s="14">
+        <f t="shared" si="3"/>
+        <v>5.155121381322326E-6</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -3884,9 +3899,9 @@
       <c r="A147" t="s">
         <v>35</v>
       </c>
-      <c r="B147" s="6">
-        <f t="shared" si="2"/>
-        <v>6.2994744396920993E-9</v>
+      <c r="B147" s="14">
+        <f t="shared" si="3"/>
+        <v>6.8769302748732011E-2</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -3905,9 +3920,9 @@
       <c r="A148" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="6">
-        <f t="shared" si="2"/>
-        <v>2.8707756148051313E-5</v>
+      <c r="B148" s="14">
+        <f t="shared" si="3"/>
+        <v>313.39318742891948</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
@@ -3926,9 +3941,9 @@
       <c r="A149" t="s">
         <v>124</v>
       </c>
-      <c r="B149" s="6">
-        <f t="shared" si="2"/>
-        <v>7.7679810738014708E-11</v>
+      <c r="B149" s="14">
+        <f t="shared" si="3"/>
+        <v>8.4800509522629938E-4</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
@@ -3947,9 +3962,9 @@
       <c r="A150" t="s">
         <v>124</v>
       </c>
-      <c r="B150" s="6">
-        <f t="shared" si="2"/>
-        <v>4.7860706504879529E-12</v>
+      <c r="B150" s="14">
+        <f t="shared" si="3"/>
+        <v>5.2247968412475058E-5</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
@@ -3968,9 +3983,9 @@
       <c r="A151" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B151" s="6">
-        <f t="shared" si="2"/>
-        <v>1.9556342715255383E-20</v>
+      <c r="B151" s="14">
+        <f t="shared" si="3"/>
+        <v>2.1349019917748745E-13</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
@@ -3989,9 +4004,9 @@
       <c r="A152" t="s">
         <v>42</v>
       </c>
-      <c r="B152" s="6">
-        <f t="shared" si="2"/>
-        <v>2.0650291792000261E-9</v>
+      <c r="B152" s="14">
+        <f t="shared" si="3"/>
+        <v>2.2543248356495158E-2</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
@@ -4010,9 +4025,9 @@
       <c r="A153" t="s">
         <v>29</v>
       </c>
-      <c r="B153" s="6">
-        <f t="shared" si="2"/>
-        <v>3.1240715717136483E-9</v>
+      <c r="B153" s="14">
+        <f t="shared" si="3"/>
+        <v>3.4104467885480258E-2</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -4031,9 +4046,9 @@
       <c r="A154" t="s">
         <v>31</v>
       </c>
-      <c r="B154" s="6">
-        <f t="shared" si="2"/>
-        <v>2.464410656174567E-9</v>
+      <c r="B154" s="14">
+        <f t="shared" si="3"/>
+        <v>2.6903165356752148E-2</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -4052,9 +4067,9 @@
       <c r="A155" t="s">
         <v>40</v>
       </c>
-      <c r="B155" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4759164040222705E-9</v>
+      <c r="B155" s="14">
+        <f t="shared" si="3"/>
+        <v>1.6112096809299592E-2</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
@@ -4073,9 +4088,9 @@
       <c r="A156" t="s">
         <v>125</v>
       </c>
-      <c r="B156" s="6">
-        <f t="shared" si="2"/>
-        <v>6.432929484385866E-3</v>
+      <c r="B156" s="14">
+        <f t="shared" si="3"/>
+        <v>70226.187836488607</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -4094,9 +4109,9 @@
       <c r="A157" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="6">
-        <f t="shared" si="2"/>
-        <v>2.7215205154044493E-10</v>
+      <c r="B157" s="14">
+        <f t="shared" si="3"/>
+        <v>2.9709949623969185E-3</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -4115,9 +4130,9 @@
       <c r="A158" t="s">
         <v>127</v>
       </c>
-      <c r="B158" s="6">
-        <f t="shared" si="2"/>
-        <v>1.7570055181010894E-10</v>
+      <c r="B158" s="14">
+        <f t="shared" si="3"/>
+        <v>1.9180654761318835E-3</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
@@ -4136,9 +4151,9 @@
       <c r="A159" t="s">
         <v>128</v>
       </c>
-      <c r="B159" s="6">
-        <f t="shared" si="2"/>
-        <v>2.1750347006644095E-11</v>
+      <c r="B159" s="14">
+        <f t="shared" si="3"/>
+        <v>2.3744142666336357E-4</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
@@ -4157,9 +4172,9 @@
       <c r="A160" t="s">
         <v>128</v>
       </c>
-      <c r="B160" s="6">
-        <f t="shared" si="2"/>
-        <v>1.6916610492380577E-12</v>
+      <c r="B160" s="14">
+        <f t="shared" si="3"/>
+        <v>1.8467310560113289E-5</v>
       </c>
       <c r="C160" t="s">
         <v>7</v>
@@ -4178,9 +4193,9 @@
       <c r="A161" t="s">
         <v>129</v>
       </c>
-      <c r="B161" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4759164040222705E-9</v>
+      <c r="B161" s="14">
+        <f t="shared" si="3"/>
+        <v>1.6112096809299592E-2</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -4199,9 +4214,9 @@
       <c r="A162" t="s">
         <v>129</v>
       </c>
-      <c r="B162" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4909244112870866E-11</v>
+      <c r="B162" s="14">
+        <f t="shared" si="3"/>
+        <v>1.6275934317512379E-4</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
@@ -4220,9 +4235,9 @@
       <c r="A163" t="s">
         <v>130</v>
       </c>
-      <c r="B163" s="6">
-        <f t="shared" si="2"/>
-        <v>7.7679810738014566E-14</v>
+      <c r="B163" s="14">
+        <f t="shared" si="3"/>
+        <v>8.480050952262979E-7</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
@@ -4241,9 +4256,9 @@
       <c r="A164" t="s">
         <v>130</v>
       </c>
-      <c r="B164" s="6">
-        <f t="shared" si="2"/>
-        <v>2.275669965219449E-14</v>
+      <c r="B164" s="14">
+        <f t="shared" si="3"/>
+        <v>2.4842744945246866E-7</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
@@ -4262,9 +4277,9 @@
       <c r="A165" t="s">
         <v>101</v>
       </c>
-      <c r="B165" s="6">
-        <f t="shared" si="2"/>
-        <v>2.7282808493725065E-6</v>
+      <c r="B165" s="14">
+        <f t="shared" si="3"/>
+        <v>29.783749979504016</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
@@ -4283,9 +4298,9 @@
       <c r="A166" t="s">
         <v>131</v>
       </c>
-      <c r="B166" s="6">
-        <f t="shared" si="2"/>
-        <v>4.9503977984021124E-19</v>
+      <c r="B166" s="14">
+        <f t="shared" si="3"/>
+        <v>5.4041874156982982E-12</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
@@ -4304,9 +4319,9 @@
       <c r="A167" t="s">
         <v>132</v>
       </c>
-      <c r="B167" s="6">
-        <f t="shared" si="2"/>
-        <v>1.2428769718082375E-10</v>
+      <c r="B167" s="14">
+        <f t="shared" si="3"/>
+        <v>1.3568081523620814E-3</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
@@ -4325,9 +4340,9 @@
       <c r="A168" t="s">
         <v>132</v>
       </c>
-      <c r="B168" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4704832822344487E-11</v>
+      <c r="B168" s="14">
+        <f t="shared" si="3"/>
+        <v>1.6052785195184096E-4</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
@@ -4346,9 +4361,9 @@
       <c r="A169" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="6">
-        <f t="shared" si="2"/>
-        <v>1.8526365463546458E-12</v>
+      <c r="B169" s="14">
+        <f t="shared" si="3"/>
+        <v>2.0224627428737551E-5</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
@@ -4367,9 +4382,9 @@
       <c r="A170" t="s">
         <v>39</v>
       </c>
-      <c r="B170" s="6">
-        <f t="shared" si="2"/>
-        <v>1.3749122897498032E-8</v>
+      <c r="B170" s="14">
+        <f t="shared" si="3"/>
+        <v>0.15009467918624972</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
@@ -4388,9 +4403,9 @@
       <c r="A171" t="s">
         <v>60</v>
       </c>
-      <c r="B171" s="6">
-        <f t="shared" ref="B171:B190" si="3">H171*0.01/76.2</f>
-        <v>1.7777191187115878E-7</v>
+      <c r="B171" s="14">
+        <f t="shared" si="3"/>
+        <v>1.9406778366555546</v>
       </c>
       <c r="C171" t="s">
         <v>64</v>
@@ -4409,9 +4424,9 @@
       <c r="A172" t="s">
         <v>133</v>
       </c>
-      <c r="B172" s="6">
+      <c r="B172" s="14">
         <f t="shared" si="3"/>
-        <v>7.6366310202531106E-8</v>
+        <v>0.83366603934948746</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
@@ -4430,9 +4445,9 @@
       <c r="A173" t="s">
         <v>134</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="14">
         <f t="shared" si="3"/>
-        <v>7.8999058617901046E-7</v>
+        <v>8.6240689298277395</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
@@ -4451,9 +4466,9 @@
       <c r="A174" t="s">
         <v>135</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B174" s="14">
         <f t="shared" si="3"/>
-        <v>6.8723931837875318E-7</v>
+        <v>7.5023669353487676</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -4472,8 +4487,9 @@
       <c r="A175" t="s">
         <v>136</v>
       </c>
-      <c r="B175" s="12">
-        <v>9.1603000000000003E-8</v>
+      <c r="B175" s="14">
+        <f>B129</f>
+        <v>1</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
@@ -4492,9 +4508,9 @@
       <c r="A176" t="s">
         <v>36</v>
       </c>
-      <c r="B176" s="6">
+      <c r="B176" s="14">
         <f t="shared" si="3"/>
-        <v>8.0104146242208516E-8</v>
+        <v>0.87447077325206068</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -4513,9 +4529,9 @@
       <c r="A177" t="s">
         <v>137</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B177" s="14">
         <f t="shared" si="3"/>
-        <v>7.7679810738014566E-14</v>
+        <v>8.480050952262979E-7</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
@@ -4534,9 +4550,9 @@
       <c r="A178" t="s">
         <v>138</v>
       </c>
-      <c r="B178" s="6">
+      <c r="B178" s="14">
         <f t="shared" si="3"/>
-        <v>9.6886130348398687E-9</v>
+        <v>0.10576742066133062</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -4555,9 +4571,9 @@
       <c r="A179" t="s">
         <v>30</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B179" s="14">
         <f t="shared" si="3"/>
-        <v>1.4248186806822178E-6</v>
+        <v>15.554279670777351</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -4576,9 +4592,9 @@
       <c r="A180" t="s">
         <v>139</v>
       </c>
-      <c r="B180" s="6">
+      <c r="B180" s="14">
         <f t="shared" si="3"/>
-        <v>6.9028381168060753E-9</v>
+        <v>7.5356026732815246E-2</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -4597,9 +4613,9 @@
       <c r="A181" t="s">
         <v>38</v>
       </c>
-      <c r="B181" s="6">
+      <c r="B181" s="14">
         <f t="shared" si="3"/>
-        <v>2.4643291258150918E-9</v>
+        <v>2.6902275316475353E-2</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -4618,9 +4634,9 @@
       <c r="A182" t="s">
         <v>62</v>
       </c>
-      <c r="B182" s="6">
+      <c r="B182" s="14">
         <f t="shared" si="3"/>
-        <v>5.9104203822402483E-9</v>
+        <v>6.4522126810696676E-2</v>
       </c>
       <c r="C182" t="s">
         <v>65</v>
@@ -4639,9 +4655,9 @@
       <c r="A183" t="s">
         <v>63</v>
       </c>
-      <c r="B183" s="6">
+      <c r="B183" s="14">
         <f t="shared" si="3"/>
-        <v>5.9104203822402483E-9</v>
+        <v>6.4522126810696676E-2</v>
       </c>
       <c r="C183" t="s">
         <v>65</v>
@@ -4660,9 +4676,9 @@
       <c r="A184" t="s">
         <v>21</v>
       </c>
-      <c r="B184" s="6">
+      <c r="B184" s="14">
         <f t="shared" si="3"/>
-        <v>3.0240458285222569E-7</v>
+        <v>3.3012519552004376</v>
       </c>
       <c r="C184" t="s">
         <v>22</v>
@@ -4681,9 +4697,9 @@
       <c r="A185" t="s">
         <v>21</v>
       </c>
-      <c r="B185" s="6">
+      <c r="B185" s="14">
         <f t="shared" si="3"/>
-        <v>1.9115075862855906E-11</v>
+        <v>2.0867303322877969E-4</v>
       </c>
       <c r="C185" t="s">
         <v>22</v>
@@ -4702,9 +4718,9 @@
       <c r="A186" t="s">
         <v>21</v>
       </c>
-      <c r="B186" s="6">
+      <c r="B186" s="14">
         <f t="shared" si="3"/>
-        <v>3.0240120960354332E-7</v>
+        <v>3.3012151305475075</v>
       </c>
       <c r="C186" t="s">
         <v>22</v>
@@ -4723,9 +4739,9 @@
       <c r="A187" t="s">
         <v>33</v>
       </c>
-      <c r="B187" s="6">
+      <c r="B187" s="14">
         <f t="shared" si="3"/>
-        <v>3.3498031380588585E-6</v>
+        <v>36.568705588887461</v>
       </c>
       <c r="C187" t="s">
         <v>22</v>
@@ -4744,9 +4760,9 @@
       <c r="A188" t="s">
         <v>32</v>
       </c>
-      <c r="B188" s="6">
+      <c r="B188" s="14">
         <f t="shared" si="3"/>
-        <v>3.3554723010387924E-11</v>
+        <v>3.6630593987519973E-4</v>
       </c>
       <c r="C188" t="s">
         <v>22</v>
@@ -4765,9 +4781,9 @@
       <c r="A189" t="s">
         <v>140</v>
       </c>
-      <c r="B189" s="6">
+      <c r="B189" s="14">
         <f t="shared" si="3"/>
-        <v>2.9518328080445537E-10</v>
+        <v>3.222419361859932E-3</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -4786,9 +4802,9 @@
       <c r="A190" t="s">
         <v>140</v>
       </c>
-      <c r="B190" s="6">
+      <c r="B190" s="14">
         <f t="shared" si="3"/>
-        <v>4.5860608654801704E-11</v>
+        <v>5.006452698579927E-4</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -4802,15 +4818,12 @@
       <c r="H190" s="7">
         <v>3.4945783794958899E-7</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B192" s="6"/>
     </row>
     <row r="193" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4818,7 +4831,7 @@
       <c r="A194" t="s">
         <v>1</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="16" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4826,7 +4839,7 @@
       <c r="A195" t="s">
         <v>2</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="16" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4834,7 +4847,7 @@
       <c r="A196" t="s">
         <v>4</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="16">
         <v>1</v>
       </c>
     </row>
@@ -4842,7 +4855,7 @@
       <c r="A197" t="s">
         <v>5</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="16" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4850,7 +4863,7 @@
       <c r="A198" t="s">
         <v>6</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4858,13 +4871,13 @@
       <c r="A199" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B199"/>
+      <c r="B199" s="16"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>9</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C200" t="s">
@@ -4890,9 +4903,9 @@
       <c r="A201" t="s">
         <v>82</v>
       </c>
-      <c r="B201" s="6">
-        <f>H201*0.09/0.8121</f>
-        <v>6.4300777382446765E-11</v>
+      <c r="B201" s="14">
+        <f t="shared" ref="B201:B222" si="4">H201*0.09/0.8121/$H$224</f>
+        <v>1.0151685725046852E-4</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -4914,9 +4927,9 @@
       <c r="A202" t="s">
         <v>70</v>
       </c>
-      <c r="B202" s="6">
-        <f t="shared" ref="B202:B265" si="4">H202*0.09/0.8121</f>
-        <v>1.736727078788766E-8</v>
+      <c r="B202" s="14">
+        <f t="shared" si="4"/>
+        <v>2.741912028400325E-2</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
@@ -4938,9 +4951,9 @@
       <c r="A203" t="s">
         <v>52</v>
       </c>
-      <c r="B203" s="6">
+      <c r="B203" s="14">
         <f t="shared" si="4"/>
-        <v>4.4928545106554555E-3</v>
+        <v>7093.2341500717639</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
@@ -4962,9 +4975,9 @@
       <c r="A204" t="s">
         <v>73</v>
       </c>
-      <c r="B204" s="6">
+      <c r="B204" s="14">
         <f t="shared" si="4"/>
-        <v>9.3442763039984252E-9</v>
+        <v>1.4752567578147181E-2</v>
       </c>
       <c r="C204" t="s">
         <v>7</v>
@@ -4986,9 +4999,9 @@
       <c r="A205" t="s">
         <v>51</v>
       </c>
-      <c r="B205" s="6">
+      <c r="B205" s="14">
         <f t="shared" si="4"/>
-        <v>3.4555024506976134E-3</v>
+        <v>5455.4822398130927</v>
       </c>
       <c r="C205" t="s">
         <v>7</v>
@@ -5010,9 +5023,9 @@
       <c r="A206" t="s">
         <v>47</v>
       </c>
-      <c r="B206" s="6">
+      <c r="B206" s="14">
         <f t="shared" si="4"/>
-        <v>1.7290130260798667E-3</v>
+        <v>2729.7332271548257</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
@@ -5034,9 +5047,9 @@
       <c r="A207" t="s">
         <v>48</v>
       </c>
-      <c r="B207" s="6">
+      <c r="B207" s="14">
         <f t="shared" si="4"/>
-        <v>5.7907876492730291E-7</v>
+        <v>0.91423865634244217</v>
       </c>
       <c r="C207" t="s">
         <v>59</v>
@@ -5058,9 +5071,9 @@
       <c r="A208" t="s">
         <v>83</v>
       </c>
-      <c r="B208" s="6">
+      <c r="B208" s="14">
         <f t="shared" si="4"/>
-        <v>4.1543378228080937E-8</v>
+        <v>6.5587903738681619E-2</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
@@ -5082,9 +5095,9 @@
       <c r="A209" t="s">
         <v>71</v>
       </c>
-      <c r="B209" s="6">
+      <c r="B209" s="14">
         <f t="shared" si="4"/>
-        <v>2.0642355835196563E-8</v>
+        <v>3.2589762922634297E-2</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
@@ -5106,9 +5119,9 @@
       <c r="A210" t="s">
         <v>24</v>
       </c>
-      <c r="B210" s="6">
+      <c r="B210" s="14">
         <f t="shared" si="4"/>
-        <v>2.9378951707326558E-4</v>
+        <v>463.82936070929202</v>
       </c>
       <c r="C210" t="s">
         <v>17</v>
@@ -5130,9 +5143,9 @@
       <c r="A211" t="s">
         <v>72</v>
       </c>
-      <c r="B211" s="6">
+      <c r="B211" s="14">
         <f t="shared" si="4"/>
-        <v>2.8933395731591388E-8</v>
+        <v>4.567950068138836E-2</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
@@ -5154,9 +5167,9 @@
       <c r="A212" t="s">
         <v>104</v>
       </c>
-      <c r="B212" s="6">
+      <c r="B212" s="14">
         <f t="shared" si="4"/>
-        <v>9.9217696019067977E-2</v>
+        <v>156643.03128997152</v>
       </c>
       <c r="C212" t="s">
         <v>15</v>
@@ -5178,9 +5191,9 @@
       <c r="A213" t="s">
         <v>105</v>
       </c>
-      <c r="B213" s="6">
+      <c r="B213" s="14">
         <f t="shared" si="4"/>
-        <v>3.8841716311240441E-2</v>
+        <v>61322.570747143101</v>
       </c>
       <c r="C213" t="s">
         <v>15</v>
@@ -5202,9 +5215,9 @@
       <c r="A214" t="s">
         <v>75</v>
       </c>
-      <c r="B214" s="6">
+      <c r="B214" s="14">
         <f t="shared" si="4"/>
-        <v>1.707318632633295E-7</v>
+        <v>0.26954825270497235</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
@@ -5226,9 +5239,9 @@
       <c r="A215" t="s">
         <v>49</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B215" s="14">
         <f t="shared" si="4"/>
-        <v>5.8305544705022014E-3</v>
+        <v>9205.1696724063804</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
@@ -5250,9 +5263,9 @@
       <c r="A216" t="s">
         <v>74</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B216" s="14">
         <f t="shared" si="4"/>
-        <v>7.2216492051459696E-11</v>
+        <v>1.1401403860350441E-4</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -5274,9 +5287,9 @@
       <c r="A217" t="s">
         <v>50</v>
       </c>
-      <c r="B217" s="6">
+      <c r="B217" s="14">
         <f t="shared" si="4"/>
-        <v>3.15059048889082E-11</v>
+        <v>4.974092972672592E-5</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -5298,9 +5311,9 @@
       <c r="A218" t="s">
         <v>79</v>
       </c>
-      <c r="B218" s="6">
+      <c r="B218" s="14">
         <f t="shared" si="4"/>
-        <v>-13.142944525933432</v>
+        <v>-20749833.479528625</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
@@ -5322,9 +5335,9 @@
       <c r="A219" t="s">
         <v>78</v>
       </c>
-      <c r="B219" s="6">
+      <c r="B219" s="14">
         <f t="shared" si="4"/>
-        <v>1.9792876171196672E-10</v>
+        <v>3.1248620415529949E-4</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
@@ -5346,9 +5359,9 @@
       <c r="A220" t="s">
         <v>80</v>
       </c>
-      <c r="B220" s="6">
+      <c r="B220" s="14">
         <f t="shared" si="4"/>
-        <v>1.5754124061803472E-4</v>
+        <v>248.72314590785399</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
@@ -5370,9 +5383,9 @@
       <c r="A221" t="s">
         <v>84</v>
       </c>
-      <c r="B221" s="6">
+      <c r="B221" s="14">
         <f t="shared" si="4"/>
-        <v>5.5365019258564593E-3</v>
+        <v>8740.9250487155969</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
@@ -5394,9 +5407,9 @@
       <c r="A222" t="s">
         <v>81</v>
       </c>
-      <c r="B222" s="6">
+      <c r="B222" s="14">
         <f t="shared" si="4"/>
-        <v>-7.5048669291158134</v>
+        <v>-11848542.673059383</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
@@ -5418,9 +5431,9 @@
       <c r="A223" t="s">
         <v>76</v>
       </c>
-      <c r="B223" s="6">
-        <f t="shared" si="4"/>
-        <v>4.3162984419366603E-8</v>
+      <c r="B223" s="14">
+        <f>H223*0.09/0.8121/$H$224</f>
+        <v>6.8144907513998418E-2</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
@@ -5442,8 +5455,9 @@
       <c r="A224" t="s">
         <v>68</v>
       </c>
-      <c r="B224" s="12">
-        <v>6.3340000000000005E-7</v>
+      <c r="B224" s="17">
+        <f>0.0000006334/$H$224</f>
+        <v>1</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
@@ -5456,15 +5470,18 @@
       </c>
       <c r="G224" t="s">
         <v>67</v>
+      </c>
+      <c r="H224">
+        <v>6.3340000000000005E-7</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>115</v>
       </c>
-      <c r="B225" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1710942830160917E-7</v>
+      <c r="B225" s="14">
+        <f>H225*0.09/0.8121/$H$224</f>
+        <v>0.18489016151185533</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
@@ -5483,9 +5500,9 @@
       <c r="A226" t="s">
         <v>116</v>
       </c>
-      <c r="B226" s="6">
-        <f t="shared" si="4"/>
-        <v>6.9900993849038565E-10</v>
+      <c r="B226" s="14">
+        <f t="shared" ref="B226:B285" si="5">H226*0.09/0.8121/$H$224</f>
+        <v>1.1035837361704857E-3</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
@@ -5504,9 +5521,9 @@
       <c r="A227" t="s">
         <v>117</v>
       </c>
-      <c r="B227" s="6">
-        <f t="shared" si="4"/>
-        <v>5.2425745386778862E-9</v>
+      <c r="B227" s="14">
+        <f t="shared" si="5"/>
+        <v>8.276878021278633E-3</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -5525,9 +5542,9 @@
       <c r="A228" t="s">
         <v>117</v>
       </c>
-      <c r="B228" s="6">
-        <f t="shared" si="4"/>
-        <v>4.0132404331172179E-9</v>
+      <c r="B228" s="14">
+        <f t="shared" si="5"/>
+        <v>6.3360284703460968E-3</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
@@ -5546,9 +5563,9 @@
       <c r="A229" t="s">
         <v>118</v>
       </c>
-      <c r="B229" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4493076581616401E-12</v>
+      <c r="B229" s="14">
+        <f t="shared" si="5"/>
+        <v>2.2881396560808968E-6</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
@@ -5567,9 +5584,9 @@
       <c r="A230" t="s">
         <v>119</v>
       </c>
-      <c r="B230" s="6">
-        <f t="shared" si="4"/>
-        <v>9.0922767808412895E-9</v>
+      <c r="B230" s="14">
+        <f t="shared" si="5"/>
+        <v>1.4354715473383784E-2</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
@@ -5588,9 +5605,9 @@
       <c r="A231" t="s">
         <v>37</v>
       </c>
-      <c r="B231" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4171788547747766E-5</v>
+      <c r="B231" s="14">
+        <f t="shared" si="5"/>
+        <v>22.374153059279706</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
@@ -5609,9 +5626,9 @@
       <c r="A232" t="s">
         <v>34</v>
       </c>
-      <c r="B232" s="6">
-        <f t="shared" si="4"/>
-        <v>3.4950496924519175E-8</v>
+      <c r="B232" s="14">
+        <f t="shared" si="5"/>
+        <v>5.5179186808524114E-2</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
@@ -5630,9 +5647,9 @@
       <c r="A233" t="s">
         <v>120</v>
       </c>
-      <c r="B233" s="6">
-        <f t="shared" si="4"/>
-        <v>3.8445546616971109E-10</v>
+      <c r="B233" s="14">
+        <f t="shared" si="5"/>
+        <v>6.0697105489376552E-4</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
@@ -5651,9 +5668,9 @@
       <c r="A234" t="s">
         <v>120</v>
       </c>
-      <c r="B234" s="6">
-        <f t="shared" si="4"/>
-        <v>4.2947733124461767E-10</v>
+      <c r="B234" s="14">
+        <f t="shared" si="5"/>
+        <v>6.7805072820432217E-4</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
@@ -5672,9 +5689,9 @@
       <c r="A235" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B235" s="6">
-        <f t="shared" si="4"/>
-        <v>9.3301032484451344E-4</v>
+      <c r="B235" s="14">
+        <f t="shared" si="5"/>
+        <v>1473.0191424763393</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
@@ -5693,9 +5710,9 @@
       <c r="A236" t="s">
         <v>19</v>
       </c>
-      <c r="B236" s="6">
-        <f t="shared" si="4"/>
-        <v>4.3371589878060286E-3</v>
+      <c r="B236" s="14">
+        <f t="shared" si="5"/>
+        <v>6847.4249886422931</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
@@ -5714,9 +5731,9 @@
       <c r="A237" t="s">
         <v>61</v>
       </c>
-      <c r="B237" s="6">
-        <f t="shared" si="4"/>
-        <v>7.5979341140259237E-4</v>
+      <c r="B237" s="14">
+        <f t="shared" si="5"/>
+        <v>1199.5475393157442</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
@@ -5735,9 +5752,9 @@
       <c r="A238" t="s">
         <v>122</v>
       </c>
-      <c r="B238" s="6">
-        <f t="shared" si="4"/>
-        <v>3.4950496924519166E-7</v>
+      <c r="B238" s="14">
+        <f t="shared" si="5"/>
+        <v>0.55179186808524094</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
@@ -5756,9 +5773,9 @@
       <c r="A239" t="s">
         <v>122</v>
       </c>
-      <c r="B239" s="6">
-        <f t="shared" si="4"/>
-        <v>7.4350374877084065E-10</v>
+      <c r="B239" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1738297265090631E-3</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
@@ -5777,9 +5794,9 @@
       <c r="A240" t="s">
         <v>123</v>
       </c>
-      <c r="B240" s="6">
-        <f t="shared" si="4"/>
-        <v>6.9900993849038562E-8</v>
+      <c r="B240" s="14">
+        <f t="shared" si="5"/>
+        <v>0.11035837361704856</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
@@ -5798,9 +5815,9 @@
       <c r="A241" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B241" s="6">
-        <f t="shared" si="4"/>
-        <v>1.0623406333151139E-9</v>
+      <c r="B241" s="14">
+        <f t="shared" si="5"/>
+        <v>1.6772033996133781E-3</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
@@ -5819,9 +5836,9 @@
       <c r="A242" t="s">
         <v>35</v>
       </c>
-      <c r="B242" s="6">
-        <f t="shared" si="4"/>
-        <v>1.4171620652700665E-5</v>
+      <c r="B242" s="14">
+        <f t="shared" si="5"/>
+        <v>22.373887989738972</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
@@ -5840,9 +5857,9 @@
       <c r="A243" t="s">
         <v>41</v>
       </c>
-      <c r="B243" s="6">
-        <f t="shared" si="4"/>
-        <v>2.5832975984071405E-2</v>
+      <c r="B243" s="14">
+        <f t="shared" si="5"/>
+        <v>40784.616331025267</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
@@ -5861,9 +5878,9 @@
       <c r="A244" t="s">
         <v>124</v>
       </c>
-      <c r="B244" s="6">
-        <f t="shared" si="4"/>
-        <v>1.7475248462259583E-7</v>
+      <c r="B244" s="14">
+        <f t="shared" si="5"/>
+        <v>0.27589593404262047</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
@@ -5882,9 +5899,9 @@
       <c r="A245" t="s">
         <v>124</v>
       </c>
-      <c r="B245" s="6">
-        <f t="shared" si="4"/>
-        <v>1.0766989901312282E-8</v>
+      <c r="B245" s="14">
+        <f t="shared" si="5"/>
+        <v>1.6998721031437136E-2</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
@@ -5903,9 +5920,9 @@
       <c r="A246" t="s">
         <v>42</v>
       </c>
-      <c r="B246" s="6">
-        <f t="shared" si="4"/>
-        <v>4.3994951161092939E-17</v>
+      <c r="B246" s="14">
+        <f t="shared" si="5"/>
+        <v>6.9458400948994221E-11</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
@@ -5924,9 +5941,9 @@
       <c r="A247" t="s">
         <v>42</v>
       </c>
-      <c r="B247" s="6">
-        <f t="shared" si="4"/>
-        <v>4.6455955087280454E-6</v>
+      <c r="B247" s="14">
+        <f t="shared" si="5"/>
+        <v>7.3343787633849784</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
@@ -5945,9 +5962,9 @@
       <c r="A248" t="s">
         <v>29</v>
       </c>
-      <c r="B248" s="6">
-        <f t="shared" si="4"/>
-        <v>7.0280715685190346E-6</v>
+      <c r="B248" s="14">
+        <f t="shared" si="5"/>
+        <v>11.095787130595255</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
@@ -5966,9 +5983,9 @@
       <c r="A249" t="s">
         <v>31</v>
       </c>
-      <c r="B249" s="6">
-        <f t="shared" si="4"/>
-        <v>5.5440645542942143E-6</v>
+      <c r="B249" s="14">
+        <f t="shared" si="5"/>
+        <v>8.7528647841714768</v>
       </c>
       <c r="C249" t="s">
         <v>7</v>
@@ -5987,9 +6004,9 @@
       <c r="A250" t="s">
         <v>40</v>
       </c>
-      <c r="B250" s="6">
-        <f t="shared" si="4"/>
-        <v>3.3202972078293201E-6</v>
+      <c r="B250" s="14">
+        <f t="shared" si="5"/>
+        <v>5.2420227468097886</v>
       </c>
       <c r="C250" t="s">
         <v>7</v>
@@ -6008,9 +6025,9 @@
       <c r="A251" t="s">
         <v>125</v>
       </c>
-      <c r="B251" s="6">
-        <f t="shared" si="4"/>
-        <v>14.500849749007756</v>
+      <c r="B251" s="14">
+        <f t="shared" si="5"/>
+        <v>22893668.691202644</v>
       </c>
       <c r="C251" t="s">
         <v>7</v>
@@ -6029,9 +6046,9 @@
       <c r="A252" t="s">
         <v>126</v>
       </c>
-      <c r="B252" s="6">
-        <f t="shared" si="4"/>
-        <v>2.4513050837379274E-7</v>
+      <c r="B252" s="14">
+        <f t="shared" si="5"/>
+        <v>0.38700743349193673</v>
       </c>
       <c r="C252" t="s">
         <v>7</v>
@@ -6050,9 +6067,9 @@
       <c r="A253" t="s">
         <v>127</v>
       </c>
-      <c r="B253" s="6">
-        <f t="shared" si="4"/>
-        <v>3.9526496893680195E-7</v>
+      <c r="B253" s="14">
+        <f t="shared" si="5"/>
+        <v>0.62403689443764121</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
@@ -6071,9 +6088,9 @@
       <c r="A254" t="s">
         <v>128</v>
       </c>
-      <c r="B254" s="6">
-        <f t="shared" si="4"/>
-        <v>4.8930695694326925E-8</v>
+      <c r="B254" s="14">
+        <f t="shared" si="5"/>
+        <v>7.7250861531933876E-2</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
@@ -6092,9 +6109,9 @@
       <c r="A255" t="s">
         <v>128</v>
       </c>
-      <c r="B255" s="6">
-        <f t="shared" si="4"/>
-        <v>3.8056474222194348E-9</v>
+      <c r="B255" s="14">
+        <f t="shared" si="5"/>
+        <v>6.0082845314484287E-3</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
@@ -6113,9 +6130,9 @@
       <c r="A256" t="s">
         <v>129</v>
       </c>
-      <c r="B256" s="6">
-        <f t="shared" si="4"/>
-        <v>3.3202972078293201E-6</v>
+      <c r="B256" s="14">
+        <f t="shared" si="5"/>
+        <v>5.2420227468097886</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
@@ -6134,9 +6151,9 @@
       <c r="A257" t="s">
         <v>129</v>
       </c>
-      <c r="B257" s="6">
-        <f t="shared" si="4"/>
-        <v>3.3540599903830328E-8</v>
+      <c r="B257" s="14">
+        <f t="shared" si="5"/>
+        <v>5.2953267925213647E-2</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
@@ -6155,9 +6172,9 @@
       <c r="A258" t="s">
         <v>130</v>
       </c>
-      <c r="B258" s="6">
-        <f t="shared" si="4"/>
-        <v>1.7475248462259587E-10</v>
+      <c r="B258" s="14">
+        <f t="shared" si="5"/>
+        <v>2.7589593404262055E-4</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -6176,9 +6193,9 @@
       <c r="A259" t="s">
         <v>130</v>
       </c>
-      <c r="B259" s="6">
-        <f t="shared" si="4"/>
-        <v>5.1194638198120977E-11</v>
+      <c r="B259" s="14">
+        <f t="shared" si="5"/>
+        <v>8.0825131351627681E-5</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
@@ -6197,9 +6214,9 @@
       <c r="A260" t="s">
         <v>101</v>
       </c>
-      <c r="B260" s="6">
-        <f t="shared" si="4"/>
-        <v>1.8124613428687625E-3</v>
+      <c r="B260" s="14">
+        <f t="shared" si="5"/>
+        <v>2861.4798592812795</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
@@ -6218,9 +6235,9 @@
       <c r="A261" t="s">
         <v>131</v>
       </c>
-      <c r="B261" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1136668677768083E-15</v>
+      <c r="B261" s="14">
+        <f t="shared" si="5"/>
+        <v>1.7582362926694162E-9</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
@@ -6239,9 +6256,9 @@
       <c r="A262" t="s">
         <v>132</v>
       </c>
-      <c r="B262" s="6">
-        <f t="shared" si="4"/>
-        <v>2.7960397539615287E-7</v>
+      <c r="B262" s="14">
+        <f t="shared" si="5"/>
+        <v>0.44143349446819208</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
@@ -6260,9 +6277,9 @@
       <c r="A263" t="s">
         <v>132</v>
       </c>
-      <c r="B263" s="6">
-        <f t="shared" si="4"/>
-        <v>3.3080745785173031E-8</v>
+      <c r="B263" s="14">
+        <f t="shared" si="5"/>
+        <v>5.2227258896705125E-2</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -6281,9 +6298,9 @@
       <c r="A264" t="s">
         <v>26</v>
       </c>
-      <c r="B264" s="6">
-        <f t="shared" si="4"/>
-        <v>4.1677861532129591E-9</v>
+      <c r="B264" s="14">
+        <f t="shared" si="5"/>
+        <v>6.5800223448262687E-3</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
@@ -6302,9 +6319,9 @@
       <c r="A265" t="s">
         <v>39</v>
       </c>
-      <c r="B265" s="6">
-        <f t="shared" si="4"/>
-        <v>3.093073174215903E-5</v>
+      <c r="B265" s="14">
+        <f t="shared" si="5"/>
+        <v>48.832857186863002</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -6323,9 +6340,9 @@
       <c r="A266" t="s">
         <v>60</v>
       </c>
-      <c r="B266" s="6">
-        <f t="shared" ref="B266:B285" si="5">H266*0.09/0.8121</f>
-        <v>3.9992480672189985E-4</v>
+      <c r="B266" s="14">
+        <f t="shared" si="5"/>
+        <v>631.39375863893247</v>
       </c>
       <c r="C266" t="s">
         <v>64</v>
@@ -6344,9 +6361,9 @@
       <c r="A267" t="s">
         <v>133</v>
       </c>
-      <c r="B267" s="6">
+      <c r="B267" s="14">
         <f t="shared" si="5"/>
-        <v>1.7179756647915515E-4</v>
+        <v>271.23076488657267</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
@@ -6365,9 +6382,9 @@
       <c r="A268" t="s">
         <v>134</v>
       </c>
-      <c r="B268" s="6">
+      <c r="B268" s="14">
         <f t="shared" si="5"/>
-        <v>1.7772033228665273E-3</v>
+        <v>2805.8151608249559</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -6386,9 +6403,9 @@
       <c r="A269" t="s">
         <v>135</v>
       </c>
-      <c r="B269" s="6">
+      <c r="B269" s="14">
         <f t="shared" si="5"/>
-        <v>1.5460488031062355E-3</v>
+        <v>2440.8727551408833</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -6407,8 +6424,9 @@
       <c r="A270" t="s">
         <v>136</v>
       </c>
-      <c r="B270" s="12">
-        <v>6.3340000000000005E-7</v>
+      <c r="B270" s="14">
+        <f>B224</f>
+        <v>1</v>
       </c>
       <c r="C270" t="s">
         <v>7</v>
@@ -6427,9 +6445,9 @@
       <c r="A271" t="s">
         <v>36</v>
       </c>
-      <c r="B271" s="6">
+      <c r="B271" s="14">
         <f t="shared" si="5"/>
-        <v>7.2150733312708901E-5</v>
+        <v>113.91021994428307</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
@@ -6448,9 +6466,9 @@
       <c r="A272" t="s">
         <v>137</v>
       </c>
-      <c r="B272" s="6">
+      <c r="B272" s="14">
         <f t="shared" si="5"/>
-        <v>1.7475248462259587E-10</v>
+        <v>2.7589593404262055E-4</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -6469,9 +6487,9 @@
       <c r="A273" t="s">
         <v>138</v>
       </c>
-      <c r="B273" s="6">
+      <c r="B273" s="14">
         <f t="shared" si="5"/>
-        <v>8.7266460981070249E-6</v>
+        <v>13.777464632312952</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -6490,9 +6508,9 @@
       <c r="A274" t="s">
         <v>30</v>
       </c>
-      <c r="B274" s="6">
+      <c r="B274" s="14">
         <f t="shared" si="5"/>
-        <v>3.2053451497926671E-3</v>
+        <v>5060.53860087254</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -6511,9 +6529,9 @@
       <c r="A275" t="s">
         <v>139</v>
       </c>
-      <c r="B275" s="6">
+      <c r="B275" s="14">
         <f t="shared" si="5"/>
-        <v>6.2133925134840259E-6</v>
+        <v>9.8095871700095127</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -6532,9 +6550,9 @@
       <c r="A276" t="s">
         <v>38</v>
       </c>
-      <c r="B276" s="6">
+      <c r="B276" s="14">
         <f t="shared" si="5"/>
-        <v>5.5438811394177421E-6</v>
+        <v>8.7525752122162004</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -6553,9 +6571,9 @@
       <c r="A277" t="s">
         <v>62</v>
       </c>
-      <c r="B277" s="6">
+      <c r="B277" s="14">
         <f t="shared" si="5"/>
-        <v>1.3296384699545361E-5</v>
+        <v>20.992081938025514</v>
       </c>
       <c r="C277" t="s">
         <v>65</v>
@@ -6574,9 +6592,9 @@
       <c r="A278" t="s">
         <v>63</v>
       </c>
-      <c r="B278" s="6">
+      <c r="B278" s="14">
         <f t="shared" si="5"/>
-        <v>1.3296384699545361E-5</v>
+        <v>20.992081938025514</v>
       </c>
       <c r="C278" t="s">
         <v>65</v>
@@ -6595,9 +6613,9 @@
       <c r="A279" t="s">
         <v>21</v>
       </c>
-      <c r="B279" s="6">
+      <c r="B279" s="14">
         <f t="shared" si="5"/>
-        <v>6.8030485286474352E-4</v>
+        <v>1074.0524989970691</v>
       </c>
       <c r="C279" t="s">
         <v>22</v>
@@ -6616,9 +6634,9 @@
       <c r="A280" t="s">
         <v>21</v>
       </c>
-      <c r="B280" s="6">
+      <c r="B280" s="14">
         <f t="shared" si="5"/>
-        <v>4.3002254627646582E-8</v>
+        <v>6.7891150343616327E-2</v>
       </c>
       <c r="C280" t="s">
         <v>22</v>
@@ -6637,9 +6655,9 @@
       <c r="A281" t="s">
         <v>21</v>
       </c>
-      <c r="B281" s="6">
+      <c r="B281" s="14">
         <f t="shared" si="5"/>
-        <v>6.802972642315744E-4</v>
+        <v>1074.0405182058325</v>
       </c>
       <c r="C281" t="s">
         <v>22</v>
@@ -6658,9 +6676,9 @@
       <c r="A282" t="s">
         <v>33</v>
       </c>
-      <c r="B282" s="6">
+      <c r="B282" s="14">
         <f t="shared" si="5"/>
-        <v>7.5642952763624203E-3</v>
+        <v>11942.367029305999</v>
       </c>
       <c r="C282" t="s">
         <v>22</v>
@@ -6679,9 +6697,9 @@
       <c r="A283" t="s">
         <v>32</v>
       </c>
-      <c r="B283" s="6">
+      <c r="B283" s="14">
         <f t="shared" si="5"/>
-        <v>7.6746182867774008E-8</v>
+        <v>0.1211654292197253</v>
       </c>
       <c r="C283" t="s">
         <v>22</v>
@@ -6700,9 +6718,9 @@
       <c r="A284" t="s">
         <v>140</v>
       </c>
-      <c r="B284" s="6">
+      <c r="B284" s="14">
         <f t="shared" si="5"/>
-        <v>6.6405944156586509E-7</v>
+        <v>1.0484045493619594</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -6721,9 +6739,9 @@
       <c r="A285" t="s">
         <v>140</v>
       </c>
-      <c r="B285" s="6">
+      <c r="B285" s="14">
         <f t="shared" si="5"/>
-        <v>1.031703763512022E-7</v>
+        <v>0.16288344861257056</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>
@@ -6740,49 +6758,43 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="8"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="16"/>
     </row>
     <row r="288" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
-      <c r="B288" s="1"/>
+      <c r="B288" s="15"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B289"/>
+      <c r="B289" s="16"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B290"/>
+      <c r="B290" s="16"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B291"/>
+      <c r="B291" s="16"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B292"/>
+      <c r="B292" s="16"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B293"/>
+      <c r="B293" s="16"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
-      <c r="B294"/>
+      <c r="B294" s="16"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B295"/>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" s="6"/>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="6"/>
+      <c r="B295" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H19"/>
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/premise/data/additional_inventories/lci-rhenium.xlsx
+++ b/premise/data/additional_inventories/lci-rhenium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32707A0A-D73A-4F1D-87A5-C0E2265D6EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9815414-EF3E-4D7D-A019-AB4EFF086BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rhenium" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -565,10 +565,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H266" sqref="H266"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,8 +991,8 @@
         <v>82</v>
       </c>
       <c r="B12" s="14">
-        <f>H12*0.07/0.9509/$H$11</f>
-        <v>7.5784534816423303E-5</v>
+        <f>H12*0.07/95.09/$H$11</f>
+        <v>7.5784534816423306E-7</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1016,8 +1016,8 @@
         <v>70</v>
       </c>
       <c r="B13" s="14">
-        <f t="shared" ref="B13:B76" si="0">H13*0.07/0.9509/$H$11</f>
-        <v>2.0468967736776197E-2</v>
+        <f t="shared" ref="B13:B76" si="0">H13*0.07/95.09/$H$11</f>
+        <v>2.0468967736776193E-4</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B14" s="14">
         <f t="shared" si="0"/>
-        <v>7574.2638534545513</v>
+        <v>75.742638534545506</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B15" s="14">
         <f t="shared" si="0"/>
-        <v>1.5753017169421294E-2</v>
+        <v>1.5753017169421296E-4</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B16" s="14">
         <f t="shared" si="0"/>
-        <v>5825.4473288128647</v>
+        <v>58.254473288128636</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" s="14">
         <f t="shared" si="0"/>
-        <v>2037.8050345122117</v>
+        <v>20.378050345122116</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B18" s="14">
         <f t="shared" si="0"/>
-        <v>0.68249897759501399</v>
+        <v>6.8249897759501393E-3</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B19" s="14">
         <f t="shared" si="0"/>
-        <v>7.0035766196542087E-2</v>
+        <v>7.0035766196542082E-4</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B20" s="14">
         <f t="shared" si="0"/>
-        <v>3.4799847019721657E-2</v>
+        <v>3.4799847019721653E-4</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B21" s="14">
         <f t="shared" si="0"/>
-        <v>495.28408151531085</v>
+        <v>4.9528408151531078</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B22" s="14">
         <f t="shared" si="0"/>
-        <v>3.4100737587298736E-2</v>
+        <v>3.4100737587298735E-4</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B23" s="14">
         <f t="shared" si="0"/>
-        <v>116937.41886882656</v>
+        <v>1169.3741886882656</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B24" s="14">
         <f t="shared" si="0"/>
-        <v>65481.178427797509</v>
+        <v>654.81178427797499</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B25" s="14">
         <f t="shared" si="0"/>
-        <v>0.28782774458452803</v>
+        <v>2.8782774458452807E-3</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B26" s="14">
         <f t="shared" si="0"/>
-        <v>9829.4208874972064</v>
+        <v>98.294208874972043</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B27" s="14">
         <f t="shared" si="0"/>
-        <v>8.5113951634554127E-5</v>
+        <v>8.5113951634554124E-7</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B28" s="14">
         <f t="shared" si="0"/>
-        <v>3.7132682421164448E-5</v>
+        <v>3.7132682421164447E-7</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B29" s="14">
         <f t="shared" si="0"/>
-        <v>-15490200.547525952</v>
+        <v>-154902.00547525947</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B30" s="14">
         <f t="shared" si="0"/>
-        <v>3.3367754549774132E-4</v>
+        <v>3.336775454977413E-6</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B31" s="14">
         <f t="shared" si="0"/>
-        <v>265.59037721154476</v>
+        <v>2.6559037721154475</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B32" s="14">
         <f t="shared" si="0"/>
-        <v>6525.2900515601223</v>
+        <v>65.252900515601212</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B33" s="14">
         <f t="shared" si="0"/>
-        <v>-8773923.1011663582</v>
+        <v>-87739.231011663564</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B34" s="14">
         <f t="shared" si="0"/>
-        <v>5.087165083642041E-2</v>
+        <v>5.0871650836420402E-4</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B35" s="14">
         <f t="shared" si="0"/>
-        <v>0.13847202668331651</v>
+        <v>1.384720266833165E-3</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B36" s="14">
         <f t="shared" si="0"/>
-        <v>8.2384918467582344E-4</v>
+        <v>8.2384918467582337E-6</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="B37" s="14">
         <f t="shared" si="0"/>
-        <v>6.1788688850686812E-3</v>
+        <v>6.1788688850686804E-5</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B38" s="14">
         <f t="shared" si="0"/>
-        <v>4.7299826178038608E-3</v>
+        <v>4.7299826178038596E-5</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B39" s="14">
         <f t="shared" si="0"/>
-        <v>1.7081458599852634E-6</v>
+        <v>1.7081458599852633E-8</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B40" s="14">
         <f t="shared" si="0"/>
-        <v>1.0716106310190961E-2</v>
+        <v>1.071610631019096E-4</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B41" s="14">
         <f t="shared" si="0"/>
-        <v>16.702790328954471</v>
+        <v>0.16702790328954467</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B42" s="14">
         <f t="shared" si="0"/>
-        <v>4.1192459233791091E-2</v>
+        <v>4.1192459233791091E-4</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B43" s="14">
         <f t="shared" si="0"/>
-        <v>4.531170515717034E-4</v>
+        <v>4.5311705157170327E-6</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B44" s="14">
         <f t="shared" si="0"/>
-        <v>5.0617956870078963E-4</v>
+        <v>5.0617956870078966E-6</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B45" s="14">
         <f t="shared" si="0"/>
-        <v>1099.6407248190355</v>
+        <v>10.996407248190355</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B46" s="14">
         <f t="shared" si="0"/>
-        <v>5111.7512057556696</v>
+        <v>51.117512057556688</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B47" s="14">
         <f t="shared" si="0"/>
-        <v>895.48824421285246</v>
+        <v>8.9548824421285236</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B48" s="14">
         <f t="shared" si="0"/>
-        <v>0.41192459233791096</v>
+        <v>4.119245923379109E-3</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B49" s="14">
         <f t="shared" si="0"/>
-        <v>8.7628933939213585E-4</v>
+        <v>8.7628933939213572E-6</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B50" s="14">
         <f t="shared" si="0"/>
-        <v>8.2384918467582544E-2</v>
+        <v>8.2384918467582528E-4</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B51" s="14">
         <f t="shared" si="0"/>
-        <v>1.2520686994734256E-3</v>
+        <v>1.2520686994734255E-5</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="B52" s="14">
         <f t="shared" si="0"/>
-        <v>16.702592448795588</v>
+        <v>0.16702592448795586</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="B53" s="14">
         <f t="shared" si="0"/>
-        <v>48295.519981975332</v>
+        <v>482.95519981975332</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B54" s="14">
         <f t="shared" si="0"/>
-        <v>0.20596229616895548</v>
+        <v>2.0596229616895545E-3</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B55" s="14">
         <f t="shared" si="0"/>
-        <v>1.2689913781148619E-2</v>
+        <v>1.2689913781148616E-4</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B56" s="14">
         <f t="shared" si="0"/>
-        <v>5.185220216209793E-11</v>
+        <v>5.1852202162097937E-13</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B57" s="14">
         <f t="shared" si="0"/>
-        <v>5.4752727557276648</v>
+        <v>5.4752727557276636E-2</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="B58" s="14">
         <f t="shared" si="0"/>
-        <v>8.2832456489420867</v>
+        <v>8.2832456489420864E-2</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B59" s="14">
         <f t="shared" si="0"/>
-        <v>6.5342033229306526</v>
+        <v>6.5342033229306526E-2</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B60" s="14">
         <f t="shared" si="0"/>
-        <v>3.9132836272101557</v>
+        <v>3.9132836272101547E-2</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B61" s="14">
         <f t="shared" si="0"/>
-        <v>17071478.326140258</v>
+        <v>170714.7832614026</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B62" s="14">
         <f t="shared" si="0"/>
-        <v>0.45839417672663574</v>
+        <v>4.5839417672663575E-3</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B63" s="14">
         <f t="shared" si="0"/>
-        <v>0.46585707077751004</v>
+        <v>4.6585707077750997E-3</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B64" s="14">
         <f t="shared" si="0"/>
-        <v>5.7669442927307732E-2</v>
+        <v>5.7669442927307725E-4</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B65" s="14">
         <f t="shared" si="0"/>
-        <v>4.4853146619492036E-3</v>
+        <v>4.4853146619492032E-5</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B66" s="14">
         <f t="shared" si="0"/>
-        <v>3.9132836272101557</v>
+        <v>3.9132836272101547E-2</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="B67" s="14">
         <f t="shared" si="0"/>
-        <v>3.9530762529621233E-2</v>
+        <v>3.9530762529621228E-4</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>7</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B68" s="14">
         <f t="shared" si="0"/>
-        <v>2.0596229616895545E-4</v>
+        <v>2.0596229616895542E-6</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>7</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B69" s="14">
         <f t="shared" si="0"/>
-        <v>6.0337712837649404E-5</v>
+        <v>6.0337712837649413E-7</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>7</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B70" s="14">
         <f t="shared" si="0"/>
-        <v>749.9250423387158</v>
+        <v>7.4992504233871573</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>7</v>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="B71" s="14">
         <f t="shared" si="0"/>
-        <v>1.3125615109276808E-9</v>
+        <v>1.3125615109276806E-11</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>7</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B72" s="14">
         <f t="shared" si="0"/>
-        <v>0.3295396738703294</v>
+        <v>3.2953967387032938E-3</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>7</v>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="B73" s="14">
         <f t="shared" si="0"/>
-        <v>3.898878105001051E-2</v>
+        <v>3.8988781050010508E-4</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>7</v>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B74" s="14">
         <f t="shared" si="0"/>
-        <v>4.9121293348748452E-3</v>
+        <v>4.9121293348748456E-5</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>7</v>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B75" s="14">
         <f t="shared" si="0"/>
-        <v>36.454786583202235</v>
+        <v>0.36454786583202231</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>7</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B76" s="14">
         <f t="shared" si="0"/>
-        <v>471.34912940012015</v>
+        <v>4.7134912940012015</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>64</v>
@@ -2489,8 +2489,8 @@
         <v>133</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" ref="B77:B94" si="1">H77*0.07/0.9509/$H$11</f>
-        <v>202.47964625339696</v>
+        <f t="shared" ref="B77:B94" si="1">H77*0.07/95.09/$H$11</f>
+        <v>2.0247964625339696</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>7</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="B78" s="14">
         <f t="shared" si="1"/>
-        <v>2094.6018474484154</v>
+        <v>20.946018474484152</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>7</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B79" s="14">
         <f t="shared" si="1"/>
-        <v>1822.1644296773231</v>
+        <v>18.221644296773231</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>7</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B80" s="14">
         <f t="shared" si="1"/>
-        <v>134.92190840101117</v>
+        <v>1.3492190840101115</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>7</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="B81" s="14">
         <f t="shared" si="1"/>
-        <v>2.0596229616895545E-4</v>
+        <v>2.0596229616895542E-6</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>7</v>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B82" s="14">
         <f t="shared" si="1"/>
-        <v>16.318832691468291</v>
+        <v>0.16318832691468291</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>7</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B83" s="14">
         <f t="shared" si="1"/>
-        <v>3777.8017777033665</v>
+        <v>37.778017777033668</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>7</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B84" s="14">
         <f t="shared" si="1"/>
-        <v>11.623023858342311</v>
+        <v>0.11623023858342309</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>7</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B85" s="14">
         <f t="shared" si="1"/>
-        <v>6.5339871511881444</v>
+        <v>6.5339871511881448E-2</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>7</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B86" s="14">
         <f t="shared" si="1"/>
-        <v>15.671044273724918</v>
+        <v>0.15671044273724918</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>65</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B87" s="14">
         <f t="shared" si="1"/>
-        <v>15.671044273724918</v>
+        <v>0.15671044273724918</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>65</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B88" s="14">
         <f t="shared" si="1"/>
-        <v>801.80347589054361</v>
+        <v>8.0180347589054364</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>22</v>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B89" s="14">
         <f t="shared" si="1"/>
-        <v>5.0682215607290811E-2</v>
+        <v>5.0682215607290805E-4</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>22</v>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B90" s="14">
         <f t="shared" si="1"/>
-        <v>801.79453197014232</v>
+        <v>8.0179453197014237</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="B91" s="14">
         <f t="shared" si="1"/>
-        <v>8899.8549622233986</v>
+        <v>88.998549622233966</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B92" s="14">
         <f t="shared" si="1"/>
-        <v>8.9820480457371191E-2</v>
+        <v>8.9820480457371179E-4</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B93" s="14">
         <f t="shared" si="1"/>
-        <v>0.78265672544203291</v>
+        <v>7.8265672544203281E-3</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>7</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B94" s="14">
         <f t="shared" si="1"/>
-        <v>0.12159602569199424</v>
+        <v>1.2159602569199422E-3</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>7</v>
@@ -4904,8 +4904,8 @@
         <v>82</v>
       </c>
       <c r="B201" s="14">
-        <f t="shared" ref="B201:B222" si="4">H201*0.09/0.8121/$H$224</f>
-        <v>1.0151685725046852E-4</v>
+        <f>H201*0.09/81.21/$H$224</f>
+        <v>1.0151685725046853E-6</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -4928,8 +4928,8 @@
         <v>70</v>
       </c>
       <c r="B202" s="14">
-        <f t="shared" si="4"/>
-        <v>2.741912028400325E-2</v>
+        <f t="shared" ref="B202:B223" si="4">H202*0.09/81.21/$H$224</f>
+        <v>2.7419120284003249E-4</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B203" s="14">
         <f t="shared" si="4"/>
-        <v>7093.2341500717639</v>
+        <v>70.932341500717641</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B204" s="14">
         <f t="shared" si="4"/>
-        <v>1.4752567578147181E-2</v>
+        <v>1.4752567578147185E-4</v>
       </c>
       <c r="C204" t="s">
         <v>7</v>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B205" s="14">
         <f t="shared" si="4"/>
-        <v>5455.4822398130927</v>
+        <v>54.554822398130938</v>
       </c>
       <c r="C205" t="s">
         <v>7</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B206" s="14">
         <f t="shared" si="4"/>
-        <v>2729.7332271548257</v>
+        <v>27.297332271548264</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B207" s="14">
         <f t="shared" si="4"/>
-        <v>0.91423865634244217</v>
+        <v>9.1423865634244223E-3</v>
       </c>
       <c r="C207" t="s">
         <v>59</v>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B208" s="14">
         <f t="shared" si="4"/>
-        <v>6.5587903738681619E-2</v>
+        <v>6.5587903738681624E-4</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B209" s="14">
         <f t="shared" si="4"/>
-        <v>3.2589762922634297E-2</v>
+        <v>3.2589762922634292E-4</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B210" s="14">
         <f t="shared" si="4"/>
-        <v>463.82936070929202</v>
+        <v>4.6382936070929208</v>
       </c>
       <c r="C210" t="s">
         <v>17</v>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B211" s="14">
         <f t="shared" si="4"/>
-        <v>4.567950068138836E-2</v>
+        <v>4.5679500681388362E-4</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B212" s="14">
         <f t="shared" si="4"/>
-        <v>156643.03128997152</v>
+        <v>1566.4303128997158</v>
       </c>
       <c r="C212" t="s">
         <v>15</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B213" s="14">
         <f t="shared" si="4"/>
-        <v>61322.570747143101</v>
+        <v>613.22570747143106</v>
       </c>
       <c r="C213" t="s">
         <v>15</v>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B214" s="14">
         <f t="shared" si="4"/>
-        <v>0.26954825270497235</v>
+        <v>2.6954825270497237E-3</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B215" s="14">
         <f t="shared" si="4"/>
-        <v>9205.1696724063804</v>
+        <v>92.051696724063802</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B216" s="14">
         <f t="shared" si="4"/>
-        <v>1.1401403860350441E-4</v>
+        <v>1.1401403860350441E-6</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B217" s="14">
         <f t="shared" si="4"/>
-        <v>4.974092972672592E-5</v>
+        <v>4.9740929726725927E-7</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B218" s="14">
         <f t="shared" si="4"/>
-        <v>-20749833.479528625</v>
+        <v>-207498.33479528627</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B219" s="14">
         <f t="shared" si="4"/>
-        <v>3.1248620415529949E-4</v>
+        <v>3.1248620415529958E-6</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B220" s="14">
         <f t="shared" si="4"/>
-        <v>248.72314590785399</v>
+        <v>2.48723145907854</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B221" s="14">
         <f t="shared" si="4"/>
-        <v>8740.9250487155969</v>
+        <v>87.409250487155973</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B222" s="14">
         <f t="shared" si="4"/>
-        <v>-11848542.673059383</v>
+        <v>-118485.42673059386</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
@@ -5432,8 +5432,8 @@
         <v>76</v>
       </c>
       <c r="B223" s="14">
-        <f>H223*0.09/0.8121/$H$224</f>
-        <v>6.8144907513998418E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.8144907513998428E-4</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
@@ -5480,8 +5480,8 @@
         <v>115</v>
       </c>
       <c r="B225" s="14">
-        <f>H225*0.09/0.8121/$H$224</f>
-        <v>0.18489016151185533</v>
+        <f>H225*0.09/81.21/$H$224</f>
+        <v>1.8489016151185533E-3</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
@@ -5501,8 +5501,8 @@
         <v>116</v>
       </c>
       <c r="B226" s="14">
-        <f t="shared" ref="B226:B285" si="5">H226*0.09/0.8121/$H$224</f>
-        <v>1.1035837361704857E-3</v>
+        <f t="shared" ref="B226:B269" si="5">H226*0.09/81.21/$H$224</f>
+        <v>1.1035837361704857E-5</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B227" s="14">
         <f t="shared" si="5"/>
-        <v>8.276878021278633E-3</v>
+        <v>8.2768780212786336E-5</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B228" s="14">
         <f t="shared" si="5"/>
-        <v>6.3360284703460968E-3</v>
+        <v>6.3360284703460964E-5</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B229" s="14">
         <f t="shared" si="5"/>
-        <v>2.2881396560808968E-6</v>
+        <v>2.2881396560808969E-8</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B230" s="14">
         <f t="shared" si="5"/>
-        <v>1.4354715473383784E-2</v>
+        <v>1.4354715473383786E-4</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="B231" s="14">
         <f t="shared" si="5"/>
-        <v>22.374153059279706</v>
+        <v>0.22374153059279706</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="B232" s="14">
         <f t="shared" si="5"/>
-        <v>5.5179186808524114E-2</v>
+        <v>5.5179186808524121E-4</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B233" s="14">
         <f t="shared" si="5"/>
-        <v>6.0697105489376552E-4</v>
+        <v>6.0697105489376555E-6</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="B234" s="14">
         <f t="shared" si="5"/>
-        <v>6.7805072820432217E-4</v>
+        <v>6.7805072820432212E-6</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B235" s="14">
         <f t="shared" si="5"/>
-        <v>1473.0191424763393</v>
+        <v>14.730191424763396</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B236" s="14">
         <f t="shared" si="5"/>
-        <v>6847.4249886422931</v>
+        <v>68.474249886422925</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B237" s="14">
         <f t="shared" si="5"/>
-        <v>1199.5475393157442</v>
+        <v>11.995475393157443</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B238" s="14">
         <f t="shared" si="5"/>
-        <v>0.55179186808524094</v>
+        <v>5.5179186808524102E-3</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="B239" s="14">
         <f t="shared" si="5"/>
-        <v>1.1738297265090631E-3</v>
+        <v>1.1738297265090634E-5</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B240" s="14">
         <f t="shared" si="5"/>
-        <v>0.11035837361704856</v>
+        <v>1.1035837361704859E-3</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B241" s="14">
         <f t="shared" si="5"/>
-        <v>1.6772033996133781E-3</v>
+        <v>1.6772033996133784E-5</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="B242" s="14">
         <f t="shared" si="5"/>
-        <v>22.373887989738972</v>
+        <v>0.22373887989738975</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="B243" s="14">
         <f t="shared" si="5"/>
-        <v>40784.616331025267</v>
+        <v>407.84616331025268</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
@@ -5880,7 +5880,7 @@
       </c>
       <c r="B244" s="14">
         <f t="shared" si="5"/>
-        <v>0.27589593404262047</v>
+        <v>2.7589593404262051E-3</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B245" s="14">
         <f t="shared" si="5"/>
-        <v>1.6998721031437136E-2</v>
+        <v>1.6998721031437136E-4</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="B246" s="14">
         <f t="shared" si="5"/>
-        <v>6.9458400948994221E-11</v>
+        <v>6.9458400948994221E-13</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B247" s="14">
         <f t="shared" si="5"/>
-        <v>7.3343787633849784</v>
+        <v>7.33437876338498E-2</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="B248" s="14">
         <f t="shared" si="5"/>
-        <v>11.095787130595255</v>
+        <v>0.11095787130595255</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B249" s="14">
         <f t="shared" si="5"/>
-        <v>8.7528647841714768</v>
+        <v>8.7528647841714796E-2</v>
       </c>
       <c r="C249" t="s">
         <v>7</v>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="B250" s="14">
         <f t="shared" si="5"/>
-        <v>5.2420227468097886</v>
+        <v>5.242022746809788E-2</v>
       </c>
       <c r="C250" t="s">
         <v>7</v>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="B251" s="14">
         <f t="shared" si="5"/>
-        <v>22893668.691202644</v>
+        <v>228936.68691202646</v>
       </c>
       <c r="C251" t="s">
         <v>7</v>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="B252" s="14">
         <f t="shared" si="5"/>
-        <v>0.38700743349193673</v>
+        <v>3.8700743349193677E-3</v>
       </c>
       <c r="C252" t="s">
         <v>7</v>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B253" s="14">
         <f t="shared" si="5"/>
-        <v>0.62403689443764121</v>
+        <v>6.2403689443764126E-3</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="B254" s="14">
         <f t="shared" si="5"/>
-        <v>7.7250861531933876E-2</v>
+        <v>7.7250861531933887E-4</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B255" s="14">
         <f t="shared" si="5"/>
-        <v>6.0082845314484287E-3</v>
+        <v>6.0082845314484289E-5</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B256" s="14">
         <f t="shared" si="5"/>
-        <v>5.2420227468097886</v>
+        <v>5.242022746809788E-2</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B257" s="14">
         <f t="shared" si="5"/>
-        <v>5.2953267925213647E-2</v>
+        <v>5.2953267925213651E-4</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B258" s="14">
         <f t="shared" si="5"/>
-        <v>2.7589593404262055E-4</v>
+        <v>2.7589593404262055E-6</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="B259" s="14">
         <f t="shared" si="5"/>
-        <v>8.0825131351627681E-5</v>
+        <v>8.0825131351627701E-7</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B260" s="14">
         <f t="shared" si="5"/>
-        <v>2861.4798592812795</v>
+        <v>28.6147985928128</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B261" s="14">
         <f t="shared" si="5"/>
-        <v>1.7582362926694162E-9</v>
+        <v>1.7582362926694162E-11</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="B262" s="14">
         <f t="shared" si="5"/>
-        <v>0.44143349446819208</v>
+        <v>4.4143349446819219E-3</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="B263" s="14">
         <f t="shared" si="5"/>
-        <v>5.2227258896705125E-2</v>
+        <v>5.2227258896705129E-4</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="B264" s="14">
         <f t="shared" si="5"/>
-        <v>6.5800223448262687E-3</v>
+        <v>6.5800223448262687E-5</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B265" s="14">
         <f t="shared" si="5"/>
-        <v>48.832857186863002</v>
+        <v>0.4883285718686301</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="B266" s="14">
         <f t="shared" si="5"/>
-        <v>631.39375863893247</v>
+        <v>6.3139375863893257</v>
       </c>
       <c r="C266" t="s">
         <v>64</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B267" s="14">
         <f t="shared" si="5"/>
-        <v>271.23076488657267</v>
+        <v>2.712307648865727</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="B268" s="14">
         <f t="shared" si="5"/>
-        <v>2805.8151608249559</v>
+        <v>28.058151608249563</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B269" s="14">
         <f t="shared" si="5"/>
-        <v>2440.8727551408833</v>
+        <v>24.408727551408834</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -6446,8 +6446,8 @@
         <v>36</v>
       </c>
       <c r="B271" s="14">
-        <f t="shared" si="5"/>
-        <v>113.91021994428307</v>
+        <f>H271*0.09/81.21/$H$224</f>
+        <v>1.1391021994428308</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
@@ -6467,8 +6467,8 @@
         <v>137</v>
       </c>
       <c r="B272" s="14">
-        <f t="shared" si="5"/>
-        <v>2.7589593404262055E-4</v>
+        <f t="shared" ref="B272:B285" si="6">H272*0.09/81.21/$H$224</f>
+        <v>2.7589593404262055E-6</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -6488,8 +6488,8 @@
         <v>138</v>
       </c>
       <c r="B273" s="14">
-        <f t="shared" si="5"/>
-        <v>13.777464632312952</v>
+        <f t="shared" si="6"/>
+        <v>0.13777464632312955</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -6509,8 +6509,8 @@
         <v>30</v>
       </c>
       <c r="B274" s="14">
-        <f t="shared" si="5"/>
-        <v>5060.53860087254</v>
+        <f t="shared" si="6"/>
+        <v>50.605386008725411</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -6530,8 +6530,8 @@
         <v>139</v>
       </c>
       <c r="B275" s="14">
-        <f t="shared" si="5"/>
-        <v>9.8095871700095127</v>
+        <f t="shared" si="6"/>
+        <v>9.8095871700095122E-2</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -6551,8 +6551,8 @@
         <v>38</v>
       </c>
       <c r="B276" s="14">
-        <f t="shared" si="5"/>
-        <v>8.7525752122162004</v>
+        <f t="shared" si="6"/>
+        <v>8.7525752122162029E-2</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -6572,8 +6572,8 @@
         <v>62</v>
       </c>
       <c r="B277" s="14">
-        <f t="shared" si="5"/>
-        <v>20.992081938025514</v>
+        <f t="shared" si="6"/>
+        <v>0.20992081938025517</v>
       </c>
       <c r="C277" t="s">
         <v>65</v>
@@ -6593,8 +6593,8 @@
         <v>63</v>
       </c>
       <c r="B278" s="14">
-        <f t="shared" si="5"/>
-        <v>20.992081938025514</v>
+        <f t="shared" si="6"/>
+        <v>0.20992081938025517</v>
       </c>
       <c r="C278" t="s">
         <v>65</v>
@@ -6614,8 +6614,8 @@
         <v>21</v>
       </c>
       <c r="B279" s="14">
-        <f t="shared" si="5"/>
-        <v>1074.0524989970691</v>
+        <f t="shared" si="6"/>
+        <v>10.740524989970691</v>
       </c>
       <c r="C279" t="s">
         <v>22</v>
@@ -6635,8 +6635,8 @@
         <v>21</v>
       </c>
       <c r="B280" s="14">
-        <f t="shared" si="5"/>
-        <v>6.7891150343616327E-2</v>
+        <f t="shared" si="6"/>
+        <v>6.7891150343616334E-4</v>
       </c>
       <c r="C280" t="s">
         <v>22</v>
@@ -6656,8 +6656,8 @@
         <v>21</v>
       </c>
       <c r="B281" s="14">
-        <f t="shared" si="5"/>
-        <v>1074.0405182058325</v>
+        <f t="shared" si="6"/>
+        <v>10.740405182058328</v>
       </c>
       <c r="C281" t="s">
         <v>22</v>
@@ -6677,8 +6677,8 @@
         <v>33</v>
       </c>
       <c r="B282" s="14">
-        <f t="shared" si="5"/>
-        <v>11942.367029305999</v>
+        <f t="shared" si="6"/>
+        <v>119.42367029306</v>
       </c>
       <c r="C282" t="s">
         <v>22</v>
@@ -6698,8 +6698,8 @@
         <v>32</v>
       </c>
       <c r="B283" s="14">
-        <f t="shared" si="5"/>
-        <v>0.1211654292197253</v>
+        <f t="shared" si="6"/>
+        <v>1.2116542921972533E-3</v>
       </c>
       <c r="C283" t="s">
         <v>22</v>
@@ -6719,8 +6719,8 @@
         <v>140</v>
       </c>
       <c r="B284" s="14">
-        <f t="shared" si="5"/>
-        <v>1.0484045493619594</v>
+        <f t="shared" si="6"/>
+        <v>1.0484045493619596E-2</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -6740,8 +6740,8 @@
         <v>140</v>
       </c>
       <c r="B285" s="14">
-        <f t="shared" si="5"/>
-        <v>0.16288344861257056</v>
+        <f t="shared" si="6"/>
+        <v>1.6288344861257059E-3</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>

--- a/premise/data/additional_inventories/lci-rhenium.xlsx
+++ b/premise/data/additional_inventories/lci-rhenium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9815414-EF3E-4D7D-A019-AB4EFF086BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32707A0A-D73A-4F1D-87A5-C0E2265D6EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rhenium" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="174" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -565,10 +565,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H266" sqref="H266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,8 +991,8 @@
         <v>82</v>
       </c>
       <c r="B12" s="14">
-        <f>H12*0.07/95.09/$H$11</f>
-        <v>7.5784534816423306E-7</v>
+        <f>H12*0.07/0.9509/$H$11</f>
+        <v>7.5784534816423303E-5</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -1016,8 +1016,8 @@
         <v>70</v>
       </c>
       <c r="B13" s="14">
-        <f t="shared" ref="B13:B76" si="0">H13*0.07/95.09/$H$11</f>
-        <v>2.0468967736776193E-4</v>
+        <f t="shared" ref="B13:B76" si="0">H13*0.07/0.9509/$H$11</f>
+        <v>2.0468967736776197E-2</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B14" s="14">
         <f t="shared" si="0"/>
-        <v>75.742638534545506</v>
+        <v>7574.2638534545513</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B15" s="14">
         <f t="shared" si="0"/>
-        <v>1.5753017169421296E-4</v>
+        <v>1.5753017169421294E-2</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B16" s="14">
         <f t="shared" si="0"/>
-        <v>58.254473288128636</v>
+        <v>5825.4473288128647</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" s="14">
         <f t="shared" si="0"/>
-        <v>20.378050345122116</v>
+        <v>2037.8050345122117</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B18" s="14">
         <f t="shared" si="0"/>
-        <v>6.8249897759501393E-3</v>
+        <v>0.68249897759501399</v>
       </c>
       <c r="C18" t="s">
         <v>59</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B19" s="14">
         <f t="shared" si="0"/>
-        <v>7.0035766196542082E-4</v>
+        <v>7.0035766196542087E-2</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B20" s="14">
         <f t="shared" si="0"/>
-        <v>3.4799847019721653E-4</v>
+        <v>3.4799847019721657E-2</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B21" s="14">
         <f t="shared" si="0"/>
-        <v>4.9528408151531078</v>
+        <v>495.28408151531085</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B22" s="14">
         <f t="shared" si="0"/>
-        <v>3.4100737587298735E-4</v>
+        <v>3.4100737587298736E-2</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B23" s="14">
         <f t="shared" si="0"/>
-        <v>1169.3741886882656</v>
+        <v>116937.41886882656</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B24" s="14">
         <f t="shared" si="0"/>
-        <v>654.81178427797499</v>
+        <v>65481.178427797509</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="B25" s="14">
         <f t="shared" si="0"/>
-        <v>2.8782774458452807E-3</v>
+        <v>0.28782774458452803</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B26" s="14">
         <f t="shared" si="0"/>
-        <v>98.294208874972043</v>
+        <v>9829.4208874972064</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B27" s="14">
         <f t="shared" si="0"/>
-        <v>8.5113951634554124E-7</v>
+        <v>8.5113951634554127E-5</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B28" s="14">
         <f t="shared" si="0"/>
-        <v>3.7132682421164447E-7</v>
+        <v>3.7132682421164448E-5</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B29" s="14">
         <f t="shared" si="0"/>
-        <v>-154902.00547525947</v>
+        <v>-15490200.547525952</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B30" s="14">
         <f t="shared" si="0"/>
-        <v>3.336775454977413E-6</v>
+        <v>3.3367754549774132E-4</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B31" s="14">
         <f t="shared" si="0"/>
-        <v>2.6559037721154475</v>
+        <v>265.59037721154476</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B32" s="14">
         <f t="shared" si="0"/>
-        <v>65.252900515601212</v>
+        <v>6525.2900515601223</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B33" s="14">
         <f t="shared" si="0"/>
-        <v>-87739.231011663564</v>
+        <v>-8773923.1011663582</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B34" s="14">
         <f t="shared" si="0"/>
-        <v>5.0871650836420402E-4</v>
+        <v>5.087165083642041E-2</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B35" s="14">
         <f t="shared" si="0"/>
-        <v>1.384720266833165E-3</v>
+        <v>0.13847202668331651</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B36" s="14">
         <f t="shared" si="0"/>
-        <v>8.2384918467582337E-6</v>
+        <v>8.2384918467582344E-4</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="B37" s="14">
         <f t="shared" si="0"/>
-        <v>6.1788688850686804E-5</v>
+        <v>6.1788688850686812E-3</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B38" s="14">
         <f t="shared" si="0"/>
-        <v>4.7299826178038596E-5</v>
+        <v>4.7299826178038608E-3</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B39" s="14">
         <f t="shared" si="0"/>
-        <v>1.7081458599852633E-8</v>
+        <v>1.7081458599852634E-6</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B40" s="14">
         <f t="shared" si="0"/>
-        <v>1.071610631019096E-4</v>
+        <v>1.0716106310190961E-2</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="B41" s="14">
         <f t="shared" si="0"/>
-        <v>0.16702790328954467</v>
+        <v>16.702790328954471</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B42" s="14">
         <f t="shared" si="0"/>
-        <v>4.1192459233791091E-4</v>
+        <v>4.1192459233791091E-2</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B43" s="14">
         <f t="shared" si="0"/>
-        <v>4.5311705157170327E-6</v>
+        <v>4.531170515717034E-4</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B44" s="14">
         <f t="shared" si="0"/>
-        <v>5.0617956870078966E-6</v>
+        <v>5.0617956870078963E-4</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B45" s="14">
         <f t="shared" si="0"/>
-        <v>10.996407248190355</v>
+        <v>1099.6407248190355</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B46" s="14">
         <f t="shared" si="0"/>
-        <v>51.117512057556688</v>
+        <v>5111.7512057556696</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B47" s="14">
         <f t="shared" si="0"/>
-        <v>8.9548824421285236</v>
+        <v>895.48824421285246</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B48" s="14">
         <f t="shared" si="0"/>
-        <v>4.119245923379109E-3</v>
+        <v>0.41192459233791096</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B49" s="14">
         <f t="shared" si="0"/>
-        <v>8.7628933939213572E-6</v>
+        <v>8.7628933939213585E-4</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B50" s="14">
         <f t="shared" si="0"/>
-        <v>8.2384918467582528E-4</v>
+        <v>8.2384918467582544E-2</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B51" s="14">
         <f t="shared" si="0"/>
-        <v>1.2520686994734255E-5</v>
+        <v>1.2520686994734256E-3</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="B52" s="14">
         <f t="shared" si="0"/>
-        <v>0.16702592448795586</v>
+        <v>16.702592448795588</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="B53" s="14">
         <f t="shared" si="0"/>
-        <v>482.95519981975332</v>
+        <v>48295.519981975332</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B54" s="14">
         <f t="shared" si="0"/>
-        <v>2.0596229616895545E-3</v>
+        <v>0.20596229616895548</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="B55" s="14">
         <f t="shared" si="0"/>
-        <v>1.2689913781148616E-4</v>
+        <v>1.2689913781148619E-2</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="B56" s="14">
         <f t="shared" si="0"/>
-        <v>5.1852202162097937E-13</v>
+        <v>5.185220216209793E-11</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="B57" s="14">
         <f t="shared" si="0"/>
-        <v>5.4752727557276636E-2</v>
+        <v>5.4752727557276648</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="B58" s="14">
         <f t="shared" si="0"/>
-        <v>8.2832456489420864E-2</v>
+        <v>8.2832456489420867</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B59" s="14">
         <f t="shared" si="0"/>
-        <v>6.5342033229306526E-2</v>
+        <v>6.5342033229306526</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B60" s="14">
         <f t="shared" si="0"/>
-        <v>3.9132836272101547E-2</v>
+        <v>3.9132836272101557</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B61" s="14">
         <f t="shared" si="0"/>
-        <v>170714.7832614026</v>
+        <v>17071478.326140258</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B62" s="14">
         <f t="shared" si="0"/>
-        <v>4.5839417672663575E-3</v>
+        <v>0.45839417672663574</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="B63" s="14">
         <f t="shared" si="0"/>
-        <v>4.6585707077750997E-3</v>
+        <v>0.46585707077751004</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B64" s="14">
         <f t="shared" si="0"/>
-        <v>5.7669442927307725E-4</v>
+        <v>5.7669442927307732E-2</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B65" s="14">
         <f t="shared" si="0"/>
-        <v>4.4853146619492032E-5</v>
+        <v>4.4853146619492036E-3</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B66" s="14">
         <f t="shared" si="0"/>
-        <v>3.9132836272101547E-2</v>
+        <v>3.9132836272101557</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="B67" s="14">
         <f t="shared" si="0"/>
-        <v>3.9530762529621228E-4</v>
+        <v>3.9530762529621233E-2</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>7</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B68" s="14">
         <f t="shared" si="0"/>
-        <v>2.0596229616895542E-6</v>
+        <v>2.0596229616895545E-4</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>7</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="B69" s="14">
         <f t="shared" si="0"/>
-        <v>6.0337712837649413E-7</v>
+        <v>6.0337712837649404E-5</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>7</v>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B70" s="14">
         <f t="shared" si="0"/>
-        <v>7.4992504233871573</v>
+        <v>749.9250423387158</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>7</v>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="B71" s="14">
         <f t="shared" si="0"/>
-        <v>1.3125615109276806E-11</v>
+        <v>1.3125615109276808E-9</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>7</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B72" s="14">
         <f t="shared" si="0"/>
-        <v>3.2953967387032938E-3</v>
+        <v>0.3295396738703294</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>7</v>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="B73" s="14">
         <f t="shared" si="0"/>
-        <v>3.8988781050010508E-4</v>
+        <v>3.898878105001051E-2</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>7</v>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B74" s="14">
         <f t="shared" si="0"/>
-        <v>4.9121293348748456E-5</v>
+        <v>4.9121293348748452E-3</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>7</v>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B75" s="14">
         <f t="shared" si="0"/>
-        <v>0.36454786583202231</v>
+        <v>36.454786583202235</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>7</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B76" s="14">
         <f t="shared" si="0"/>
-        <v>4.7134912940012015</v>
+        <v>471.34912940012015</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>64</v>
@@ -2489,8 +2489,8 @@
         <v>133</v>
       </c>
       <c r="B77" s="14">
-        <f t="shared" ref="B77:B94" si="1">H77*0.07/95.09/$H$11</f>
-        <v>2.0247964625339696</v>
+        <f t="shared" ref="B77:B94" si="1">H77*0.07/0.9509/$H$11</f>
+        <v>202.47964625339696</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>7</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="B78" s="14">
         <f t="shared" si="1"/>
-        <v>20.946018474484152</v>
+        <v>2094.6018474484154</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>7</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="B79" s="14">
         <f t="shared" si="1"/>
-        <v>18.221644296773231</v>
+        <v>1822.1644296773231</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>7</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="B80" s="14">
         <f t="shared" si="1"/>
-        <v>1.3492190840101115</v>
+        <v>134.92190840101117</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>7</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="B81" s="14">
         <f t="shared" si="1"/>
-        <v>2.0596229616895542E-6</v>
+        <v>2.0596229616895545E-4</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>7</v>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B82" s="14">
         <f t="shared" si="1"/>
-        <v>0.16318832691468291</v>
+        <v>16.318832691468291</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>7</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B83" s="14">
         <f t="shared" si="1"/>
-        <v>37.778017777033668</v>
+        <v>3777.8017777033665</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>7</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B84" s="14">
         <f t="shared" si="1"/>
-        <v>0.11623023858342309</v>
+        <v>11.623023858342311</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>7</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B85" s="14">
         <f t="shared" si="1"/>
-        <v>6.5339871511881448E-2</v>
+        <v>6.5339871511881444</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>7</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B86" s="14">
         <f t="shared" si="1"/>
-        <v>0.15671044273724918</v>
+        <v>15.671044273724918</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>65</v>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="B87" s="14">
         <f t="shared" si="1"/>
-        <v>0.15671044273724918</v>
+        <v>15.671044273724918</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>65</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B88" s="14">
         <f t="shared" si="1"/>
-        <v>8.0180347589054364</v>
+        <v>801.80347589054361</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>22</v>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="B89" s="14">
         <f t="shared" si="1"/>
-        <v>5.0682215607290805E-4</v>
+        <v>5.0682215607290811E-2</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>22</v>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B90" s="14">
         <f t="shared" si="1"/>
-        <v>8.0179453197014237</v>
+        <v>801.79453197014232</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="B91" s="14">
         <f t="shared" si="1"/>
-        <v>88.998549622233966</v>
+        <v>8899.8549622233986</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="B92" s="14">
         <f t="shared" si="1"/>
-        <v>8.9820480457371179E-4</v>
+        <v>8.9820480457371191E-2</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="B93" s="14">
         <f t="shared" si="1"/>
-        <v>7.8265672544203281E-3</v>
+        <v>0.78265672544203291</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>7</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="B94" s="14">
         <f t="shared" si="1"/>
-        <v>1.2159602569199422E-3</v>
+        <v>0.12159602569199424</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>7</v>
@@ -4904,8 +4904,8 @@
         <v>82</v>
       </c>
       <c r="B201" s="14">
-        <f>H201*0.09/81.21/$H$224</f>
-        <v>1.0151685725046853E-6</v>
+        <f t="shared" ref="B201:B222" si="4">H201*0.09/0.8121/$H$224</f>
+        <v>1.0151685725046852E-4</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -4928,8 +4928,8 @@
         <v>70</v>
       </c>
       <c r="B202" s="14">
-        <f t="shared" ref="B202:B223" si="4">H202*0.09/81.21/$H$224</f>
-        <v>2.7419120284003249E-4</v>
+        <f t="shared" si="4"/>
+        <v>2.741912028400325E-2</v>
       </c>
       <c r="C202" t="s">
         <v>7</v>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B203" s="14">
         <f t="shared" si="4"/>
-        <v>70.932341500717641</v>
+        <v>7093.2341500717639</v>
       </c>
       <c r="C203" t="s">
         <v>7</v>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B204" s="14">
         <f t="shared" si="4"/>
-        <v>1.4752567578147185E-4</v>
+        <v>1.4752567578147181E-2</v>
       </c>
       <c r="C204" t="s">
         <v>7</v>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B205" s="14">
         <f t="shared" si="4"/>
-        <v>54.554822398130938</v>
+        <v>5455.4822398130927</v>
       </c>
       <c r="C205" t="s">
         <v>7</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B206" s="14">
         <f t="shared" si="4"/>
-        <v>27.297332271548264</v>
+        <v>2729.7332271548257</v>
       </c>
       <c r="C206" t="s">
         <v>7</v>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B207" s="14">
         <f t="shared" si="4"/>
-        <v>9.1423865634244223E-3</v>
+        <v>0.91423865634244217</v>
       </c>
       <c r="C207" t="s">
         <v>59</v>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B208" s="14">
         <f t="shared" si="4"/>
-        <v>6.5587903738681624E-4</v>
+        <v>6.5587903738681619E-2</v>
       </c>
       <c r="C208" t="s">
         <v>7</v>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B209" s="14">
         <f t="shared" si="4"/>
-        <v>3.2589762922634292E-4</v>
+        <v>3.2589762922634297E-2</v>
       </c>
       <c r="C209" t="s">
         <v>7</v>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B210" s="14">
         <f t="shared" si="4"/>
-        <v>4.6382936070929208</v>
+        <v>463.82936070929202</v>
       </c>
       <c r="C210" t="s">
         <v>17</v>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B211" s="14">
         <f t="shared" si="4"/>
-        <v>4.5679500681388362E-4</v>
+        <v>4.567950068138836E-2</v>
       </c>
       <c r="C211" t="s">
         <v>7</v>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B212" s="14">
         <f t="shared" si="4"/>
-        <v>1566.4303128997158</v>
+        <v>156643.03128997152</v>
       </c>
       <c r="C212" t="s">
         <v>15</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B213" s="14">
         <f t="shared" si="4"/>
-        <v>613.22570747143106</v>
+        <v>61322.570747143101</v>
       </c>
       <c r="C213" t="s">
         <v>15</v>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B214" s="14">
         <f t="shared" si="4"/>
-        <v>2.6954825270497237E-3</v>
+        <v>0.26954825270497235</v>
       </c>
       <c r="C214" t="s">
         <v>7</v>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B215" s="14">
         <f t="shared" si="4"/>
-        <v>92.051696724063802</v>
+        <v>9205.1696724063804</v>
       </c>
       <c r="C215" t="s">
         <v>7</v>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B216" s="14">
         <f t="shared" si="4"/>
-        <v>1.1401403860350441E-6</v>
+        <v>1.1401403860350441E-4</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B217" s="14">
         <f t="shared" si="4"/>
-        <v>4.9740929726725927E-7</v>
+        <v>4.974092972672592E-5</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="B218" s="14">
         <f t="shared" si="4"/>
-        <v>-207498.33479528627</v>
+        <v>-20749833.479528625</v>
       </c>
       <c r="C218" t="s">
         <v>7</v>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B219" s="14">
         <f t="shared" si="4"/>
-        <v>3.1248620415529958E-6</v>
+        <v>3.1248620415529949E-4</v>
       </c>
       <c r="C219" t="s">
         <v>7</v>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B220" s="14">
         <f t="shared" si="4"/>
-        <v>2.48723145907854</v>
+        <v>248.72314590785399</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B221" s="14">
         <f t="shared" si="4"/>
-        <v>87.409250487155973</v>
+        <v>8740.9250487155969</v>
       </c>
       <c r="C221" t="s">
         <v>7</v>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B222" s="14">
         <f t="shared" si="4"/>
-        <v>-118485.42673059386</v>
+        <v>-11848542.673059383</v>
       </c>
       <c r="C222" t="s">
         <v>7</v>
@@ -5432,8 +5432,8 @@
         <v>76</v>
       </c>
       <c r="B223" s="14">
-        <f t="shared" si="4"/>
-        <v>6.8144907513998428E-4</v>
+        <f>H223*0.09/0.8121/$H$224</f>
+        <v>6.8144907513998418E-2</v>
       </c>
       <c r="C223" t="s">
         <v>7</v>
@@ -5480,8 +5480,8 @@
         <v>115</v>
       </c>
       <c r="B225" s="14">
-        <f>H225*0.09/81.21/$H$224</f>
-        <v>1.8489016151185533E-3</v>
+        <f>H225*0.09/0.8121/$H$224</f>
+        <v>0.18489016151185533</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
@@ -5501,8 +5501,8 @@
         <v>116</v>
       </c>
       <c r="B226" s="14">
-        <f t="shared" ref="B226:B269" si="5">H226*0.09/81.21/$H$224</f>
-        <v>1.1035837361704857E-5</v>
+        <f t="shared" ref="B226:B285" si="5">H226*0.09/0.8121/$H$224</f>
+        <v>1.1035837361704857E-3</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="B227" s="14">
         <f t="shared" si="5"/>
-        <v>8.2768780212786336E-5</v>
+        <v>8.276878021278633E-3</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B228" s="14">
         <f t="shared" si="5"/>
-        <v>6.3360284703460964E-5</v>
+        <v>6.3360284703460968E-3</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B229" s="14">
         <f t="shared" si="5"/>
-        <v>2.2881396560808969E-8</v>
+        <v>2.2881396560808968E-6</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B230" s="14">
         <f t="shared" si="5"/>
-        <v>1.4354715473383786E-4</v>
+        <v>1.4354715473383784E-2</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="B231" s="14">
         <f t="shared" si="5"/>
-        <v>0.22374153059279706</v>
+        <v>22.374153059279706</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="B232" s="14">
         <f t="shared" si="5"/>
-        <v>5.5179186808524121E-4</v>
+        <v>5.5179186808524114E-2</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B233" s="14">
         <f t="shared" si="5"/>
-        <v>6.0697105489376555E-6</v>
+        <v>6.0697105489376552E-4</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="B234" s="14">
         <f t="shared" si="5"/>
-        <v>6.7805072820432212E-6</v>
+        <v>6.7805072820432217E-4</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="B235" s="14">
         <f t="shared" si="5"/>
-        <v>14.730191424763396</v>
+        <v>1473.0191424763393</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B236" s="14">
         <f t="shared" si="5"/>
-        <v>68.474249886422925</v>
+        <v>6847.4249886422931</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B237" s="14">
         <f t="shared" si="5"/>
-        <v>11.995475393157443</v>
+        <v>1199.5475393157442</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B238" s="14">
         <f t="shared" si="5"/>
-        <v>5.5179186808524102E-3</v>
+        <v>0.55179186808524094</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="B239" s="14">
         <f t="shared" si="5"/>
-        <v>1.1738297265090634E-5</v>
+        <v>1.1738297265090631E-3</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B240" s="14">
         <f t="shared" si="5"/>
-        <v>1.1035837361704859E-3</v>
+        <v>0.11035837361704856</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B241" s="14">
         <f t="shared" si="5"/>
-        <v>1.6772033996133784E-5</v>
+        <v>1.6772033996133781E-3</v>
       </c>
       <c r="C241" t="s">
         <v>7</v>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="B242" s="14">
         <f t="shared" si="5"/>
-        <v>0.22373887989738975</v>
+        <v>22.373887989738972</v>
       </c>
       <c r="C242" t="s">
         <v>7</v>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="B243" s="14">
         <f t="shared" si="5"/>
-        <v>407.84616331025268</v>
+        <v>40784.616331025267</v>
       </c>
       <c r="C243" t="s">
         <v>7</v>
@@ -5880,7 +5880,7 @@
       </c>
       <c r="B244" s="14">
         <f t="shared" si="5"/>
-        <v>2.7589593404262051E-3</v>
+        <v>0.27589593404262047</v>
       </c>
       <c r="C244" t="s">
         <v>7</v>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B245" s="14">
         <f t="shared" si="5"/>
-        <v>1.6998721031437136E-4</v>
+        <v>1.6998721031437136E-2</v>
       </c>
       <c r="C245" t="s">
         <v>7</v>
@@ -5922,7 +5922,7 @@
       </c>
       <c r="B246" s="14">
         <f t="shared" si="5"/>
-        <v>6.9458400948994221E-13</v>
+        <v>6.9458400948994221E-11</v>
       </c>
       <c r="C246" t="s">
         <v>7</v>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B247" s="14">
         <f t="shared" si="5"/>
-        <v>7.33437876338498E-2</v>
+        <v>7.3343787633849784</v>
       </c>
       <c r="C247" t="s">
         <v>7</v>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="B248" s="14">
         <f t="shared" si="5"/>
-        <v>0.11095787130595255</v>
+        <v>11.095787130595255</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B249" s="14">
         <f t="shared" si="5"/>
-        <v>8.7528647841714796E-2</v>
+        <v>8.7528647841714768</v>
       </c>
       <c r="C249" t="s">
         <v>7</v>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="B250" s="14">
         <f t="shared" si="5"/>
-        <v>5.242022746809788E-2</v>
+        <v>5.2420227468097886</v>
       </c>
       <c r="C250" t="s">
         <v>7</v>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="B251" s="14">
         <f t="shared" si="5"/>
-        <v>228936.68691202646</v>
+        <v>22893668.691202644</v>
       </c>
       <c r="C251" t="s">
         <v>7</v>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="B252" s="14">
         <f t="shared" si="5"/>
-        <v>3.8700743349193677E-3</v>
+        <v>0.38700743349193673</v>
       </c>
       <c r="C252" t="s">
         <v>7</v>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B253" s="14">
         <f t="shared" si="5"/>
-        <v>6.2403689443764126E-3</v>
+        <v>0.62403689443764121</v>
       </c>
       <c r="C253" t="s">
         <v>7</v>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="B254" s="14">
         <f t="shared" si="5"/>
-        <v>7.7250861531933887E-4</v>
+        <v>7.7250861531933876E-2</v>
       </c>
       <c r="C254" t="s">
         <v>7</v>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B255" s="14">
         <f t="shared" si="5"/>
-        <v>6.0082845314484289E-5</v>
+        <v>6.0082845314484287E-3</v>
       </c>
       <c r="C255" t="s">
         <v>7</v>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B256" s="14">
         <f t="shared" si="5"/>
-        <v>5.242022746809788E-2</v>
+        <v>5.2420227468097886</v>
       </c>
       <c r="C256" t="s">
         <v>7</v>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B257" s="14">
         <f t="shared" si="5"/>
-        <v>5.2953267925213651E-4</v>
+        <v>5.2953267925213647E-2</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B258" s="14">
         <f t="shared" si="5"/>
-        <v>2.7589593404262055E-6</v>
+        <v>2.7589593404262055E-4</v>
       </c>
       <c r="C258" t="s">
         <v>7</v>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="B259" s="14">
         <f t="shared" si="5"/>
-        <v>8.0825131351627701E-7</v>
+        <v>8.0825131351627681E-5</v>
       </c>
       <c r="C259" t="s">
         <v>7</v>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="B260" s="14">
         <f t="shared" si="5"/>
-        <v>28.6147985928128</v>
+        <v>2861.4798592812795</v>
       </c>
       <c r="C260" t="s">
         <v>7</v>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B261" s="14">
         <f t="shared" si="5"/>
-        <v>1.7582362926694162E-11</v>
+        <v>1.7582362926694162E-9</v>
       </c>
       <c r="C261" t="s">
         <v>7</v>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="B262" s="14">
         <f t="shared" si="5"/>
-        <v>4.4143349446819219E-3</v>
+        <v>0.44143349446819208</v>
       </c>
       <c r="C262" t="s">
         <v>7</v>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="B263" s="14">
         <f t="shared" si="5"/>
-        <v>5.2227258896705129E-4</v>
+        <v>5.2227258896705125E-2</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="B264" s="14">
         <f t="shared" si="5"/>
-        <v>6.5800223448262687E-5</v>
+        <v>6.5800223448262687E-3</v>
       </c>
       <c r="C264" t="s">
         <v>7</v>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B265" s="14">
         <f t="shared" si="5"/>
-        <v>0.4883285718686301</v>
+        <v>48.832857186863002</v>
       </c>
       <c r="C265" t="s">
         <v>7</v>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="B266" s="14">
         <f t="shared" si="5"/>
-        <v>6.3139375863893257</v>
+        <v>631.39375863893247</v>
       </c>
       <c r="C266" t="s">
         <v>64</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="B267" s="14">
         <f t="shared" si="5"/>
-        <v>2.712307648865727</v>
+        <v>271.23076488657267</v>
       </c>
       <c r="C267" t="s">
         <v>7</v>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="B268" s="14">
         <f t="shared" si="5"/>
-        <v>28.058151608249563</v>
+        <v>2805.8151608249559</v>
       </c>
       <c r="C268" t="s">
         <v>7</v>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B269" s="14">
         <f t="shared" si="5"/>
-        <v>24.408727551408834</v>
+        <v>2440.8727551408833</v>
       </c>
       <c r="C269" t="s">
         <v>7</v>
@@ -6446,8 +6446,8 @@
         <v>36</v>
       </c>
       <c r="B271" s="14">
-        <f>H271*0.09/81.21/$H$224</f>
-        <v>1.1391021994428308</v>
+        <f t="shared" si="5"/>
+        <v>113.91021994428307</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
@@ -6467,8 +6467,8 @@
         <v>137</v>
       </c>
       <c r="B272" s="14">
-        <f t="shared" ref="B272:B285" si="6">H272*0.09/81.21/$H$224</f>
-        <v>2.7589593404262055E-6</v>
+        <f t="shared" si="5"/>
+        <v>2.7589593404262055E-4</v>
       </c>
       <c r="C272" t="s">
         <v>7</v>
@@ -6488,8 +6488,8 @@
         <v>138</v>
       </c>
       <c r="B273" s="14">
-        <f t="shared" si="6"/>
-        <v>0.13777464632312955</v>
+        <f t="shared" si="5"/>
+        <v>13.777464632312952</v>
       </c>
       <c r="C273" t="s">
         <v>7</v>
@@ -6509,8 +6509,8 @@
         <v>30</v>
       </c>
       <c r="B274" s="14">
-        <f t="shared" si="6"/>
-        <v>50.605386008725411</v>
+        <f t="shared" si="5"/>
+        <v>5060.53860087254</v>
       </c>
       <c r="C274" t="s">
         <v>7</v>
@@ -6530,8 +6530,8 @@
         <v>139</v>
       </c>
       <c r="B275" s="14">
-        <f t="shared" si="6"/>
-        <v>9.8095871700095122E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.8095871700095127</v>
       </c>
       <c r="C275" t="s">
         <v>7</v>
@@ -6551,8 +6551,8 @@
         <v>38</v>
       </c>
       <c r="B276" s="14">
-        <f t="shared" si="6"/>
-        <v>8.7525752122162029E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.7525752122162004</v>
       </c>
       <c r="C276" t="s">
         <v>7</v>
@@ -6572,8 +6572,8 @@
         <v>62</v>
       </c>
       <c r="B277" s="14">
-        <f t="shared" si="6"/>
-        <v>0.20992081938025517</v>
+        <f t="shared" si="5"/>
+        <v>20.992081938025514</v>
       </c>
       <c r="C277" t="s">
         <v>65</v>
@@ -6593,8 +6593,8 @@
         <v>63</v>
       </c>
       <c r="B278" s="14">
-        <f t="shared" si="6"/>
-        <v>0.20992081938025517</v>
+        <f t="shared" si="5"/>
+        <v>20.992081938025514</v>
       </c>
       <c r="C278" t="s">
         <v>65</v>
@@ -6614,8 +6614,8 @@
         <v>21</v>
       </c>
       <c r="B279" s="14">
-        <f t="shared" si="6"/>
-        <v>10.740524989970691</v>
+        <f t="shared" si="5"/>
+        <v>1074.0524989970691</v>
       </c>
       <c r="C279" t="s">
         <v>22</v>
@@ -6635,8 +6635,8 @@
         <v>21</v>
       </c>
       <c r="B280" s="14">
-        <f t="shared" si="6"/>
-        <v>6.7891150343616334E-4</v>
+        <f t="shared" si="5"/>
+        <v>6.7891150343616327E-2</v>
       </c>
       <c r="C280" t="s">
         <v>22</v>
@@ -6656,8 +6656,8 @@
         <v>21</v>
       </c>
       <c r="B281" s="14">
-        <f t="shared" si="6"/>
-        <v>10.740405182058328</v>
+        <f t="shared" si="5"/>
+        <v>1074.0405182058325</v>
       </c>
       <c r="C281" t="s">
         <v>22</v>
@@ -6677,8 +6677,8 @@
         <v>33</v>
       </c>
       <c r="B282" s="14">
-        <f t="shared" si="6"/>
-        <v>119.42367029306</v>
+        <f t="shared" si="5"/>
+        <v>11942.367029305999</v>
       </c>
       <c r="C282" t="s">
         <v>22</v>
@@ -6698,8 +6698,8 @@
         <v>32</v>
       </c>
       <c r="B283" s="14">
-        <f t="shared" si="6"/>
-        <v>1.2116542921972533E-3</v>
+        <f t="shared" si="5"/>
+        <v>0.1211654292197253</v>
       </c>
       <c r="C283" t="s">
         <v>22</v>
@@ -6719,8 +6719,8 @@
         <v>140</v>
       </c>
       <c r="B284" s="14">
-        <f t="shared" si="6"/>
-        <v>1.0484045493619596E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.0484045493619594</v>
       </c>
       <c r="C284" t="s">
         <v>7</v>
@@ -6740,8 +6740,8 @@
         <v>140</v>
       </c>
       <c r="B285" s="14">
-        <f t="shared" si="6"/>
-        <v>1.6288344861257059E-3</v>
+        <f t="shared" si="5"/>
+        <v>0.16288344861257056</v>
       </c>
       <c r="C285" t="s">
         <v>7</v>
